--- a/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -794,7 +794,7 @@
         <v>55</v>
       </c>
       <c r="C4">
-        <v>0.01239792816397928</v>
+        <v>0.01440289339202893</v>
       </c>
       <c r="D4">
         <v>0.00151221894312219</v>
@@ -803,31 +803,31 @@
         <v>0.007058907934589079</v>
       </c>
       <c r="G4">
-        <v>-0.005520490471204904</v>
+        <v>-0.005520533863205339</v>
       </c>
       <c r="I4">
         <v>0.002153747577537476</v>
       </c>
       <c r="J4">
-        <v>-0.002937703130311568</v>
+        <v>0.01308909292273439</v>
       </c>
       <c r="K4">
-        <v>-0.009799887649998876</v>
+        <v>-0.009670113792701137</v>
       </c>
       <c r="L4">
-        <v>-0.009799887649998876</v>
+        <v>-0.009670113792701137</v>
       </c>
       <c r="O4">
-        <v>-0.009799887649998876</v>
+        <v>-0.009670113792701137</v>
       </c>
       <c r="P4">
-        <v>0.005761755249617552</v>
+        <v>0.005761821105618212</v>
       </c>
       <c r="Q4">
-        <v>-0.0005932289579322896</v>
+        <v>-0.0005934396419343966</v>
       </c>
       <c r="R4">
-        <v>-0.0005932289579322896</v>
+        <v>-0.0005934396419343966</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -836,7 +836,7 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <v>-0.004004288668042887</v>
+        <v>-0.00515163498351635</v>
       </c>
       <c r="D5">
         <v>0.0009778538137785381</v>
@@ -845,31 +845,31 @@
         <v>-0.0002060764220607642</v>
       </c>
       <c r="G5">
-        <v>-0.0003370386633703866</v>
+        <v>-0.0003369943713699437</v>
       </c>
       <c r="I5">
         <v>-0.002587492093874921</v>
       </c>
       <c r="J5">
-        <v>0.01083837632153452</v>
+        <v>0.006668845768290496</v>
       </c>
       <c r="K5">
-        <v>0.002006053676060537</v>
+        <v>0.001860220098602201</v>
       </c>
       <c r="L5">
-        <v>0.002006053676060537</v>
+        <v>0.001860220098602201</v>
       </c>
       <c r="O5">
-        <v>0.002006053676060537</v>
+        <v>0.001860220098602201</v>
       </c>
       <c r="P5">
-        <v>0.0002731425507314255</v>
+        <v>0.0002731511547315115</v>
       </c>
       <c r="Q5">
-        <v>0.002141005761410057</v>
+        <v>0.002140893825408938</v>
       </c>
       <c r="R5">
-        <v>0.002141005761410057</v>
+        <v>0.002140893825408938</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -878,7 +878,7 @@
         <v>57</v>
       </c>
       <c r="C6">
-        <v>0.232520694129207</v>
+        <v>0.2013467185294672</v>
       </c>
       <c r="D6">
         <v>-0.02621256331012563</v>
@@ -887,31 +887,31 @@
         <v>0.4974320143143202</v>
       </c>
       <c r="G6">
-        <v>-0.5743238840472389</v>
+        <v>-0.5743239337392394</v>
       </c>
       <c r="I6">
         <v>-0.5044343033683431</v>
       </c>
       <c r="J6">
-        <v>0.01176902905048543</v>
+        <v>-0.006029562860108213</v>
       </c>
       <c r="K6">
-        <v>-0.3039037558350375</v>
+        <v>-0.3229353394213534</v>
       </c>
       <c r="L6">
-        <v>-0.3039037558350375</v>
+        <v>-0.3229353394213534</v>
       </c>
       <c r="O6">
-        <v>-0.3039037558350375</v>
+        <v>-0.3229353394213534</v>
       </c>
       <c r="P6">
-        <v>0.5633482608534826</v>
+        <v>0.5633483346654833</v>
       </c>
       <c r="Q6">
-        <v>0.6107349646433495</v>
+        <v>0.6107349038633491</v>
       </c>
       <c r="R6">
-        <v>0.6107349646433495</v>
+        <v>0.6107349038633491</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -920,7 +920,7 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>0.1215260462552605</v>
+        <v>0.1054215116022151</v>
       </c>
       <c r="D7">
         <v>0.02194901197549012</v>
@@ -929,31 +929,31 @@
         <v>-0.8647421358794213</v>
       </c>
       <c r="G7">
-        <v>0.802517112549171</v>
+        <v>0.8025170823331709</v>
       </c>
       <c r="I7">
         <v>-0.2135558717395587</v>
       </c>
       <c r="J7">
-        <v>0.003672804505045517</v>
+        <v>-0.01355334998215946</v>
       </c>
       <c r="K7">
-        <v>0.9087505655795056</v>
+        <v>0.9094230263262302</v>
       </c>
       <c r="L7">
-        <v>0.9087505655795056</v>
+        <v>0.9094230263262302</v>
       </c>
       <c r="O7">
-        <v>0.9087505655795056</v>
+        <v>0.9094230263262302</v>
       </c>
       <c r="P7">
-        <v>-0.8137743449537435</v>
+        <v>-0.8137743156737433</v>
       </c>
       <c r="Q7">
-        <v>-0.01057298235372982</v>
+        <v>-0.01057316304973163</v>
       </c>
       <c r="R7">
-        <v>-0.01057298235372982</v>
+        <v>-0.01057316304973163</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -962,7 +962,7 @@
         <v>59</v>
       </c>
       <c r="C8">
-        <v>0.3143071627190716</v>
+        <v>0.267310595409106</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -971,31 +971,31 @@
         <v>-0.03042133081621331</v>
       </c>
       <c r="G8">
-        <v>0.1627254151992542</v>
+        <v>0.162725404987254</v>
       </c>
       <c r="I8">
         <v>0.8323062468790625</v>
       </c>
       <c r="J8">
-        <v>-0.02865317082534219</v>
+        <v>0.0171801824781293</v>
       </c>
       <c r="K8">
-        <v>-0.242493297744933</v>
+        <v>-0.2185364135653641</v>
       </c>
       <c r="L8">
-        <v>-0.242493297744933</v>
+        <v>-0.2185364135653641</v>
       </c>
       <c r="O8">
-        <v>-0.242493297744933</v>
+        <v>-0.2185364135653641</v>
       </c>
       <c r="P8">
-        <v>-0.1426225313502253</v>
+        <v>-0.1426224411822244</v>
       </c>
       <c r="Q8">
-        <v>-0.7915404177914042</v>
+        <v>-0.7915405064954051</v>
       </c>
       <c r="R8">
-        <v>-0.7915404177914042</v>
+        <v>-0.7915405064954051</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1006,7 +1006,7 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>-0.002901293297012933</v>
+        <v>-0.002300694539006945</v>
       </c>
       <c r="D9">
         <v>-0.009849915098499151</v>
@@ -1015,31 +1015,31 @@
         <v>-0.01436892398368924</v>
       </c>
       <c r="G9">
-        <v>0.01437241169972412</v>
+        <v>0.0143724302637243</v>
       </c>
       <c r="I9">
         <v>-0.006074135208741352</v>
       </c>
       <c r="J9">
-        <v>-0.003416143651547103</v>
+        <v>0.01285627949782102</v>
       </c>
       <c r="K9">
-        <v>0.0139585901715859</v>
+        <v>0.01411060701310607</v>
       </c>
       <c r="L9">
-        <v>0.0139585901715859</v>
+        <v>0.01411060701310607</v>
       </c>
       <c r="O9">
-        <v>0.0139585901715859</v>
+        <v>0.01411060701310607</v>
       </c>
       <c r="P9">
-        <v>-0.01442904571229046</v>
+        <v>-0.01442908304429083</v>
       </c>
       <c r="Q9">
-        <v>0.0005599939615999396</v>
+        <v>0.0005598430375984304</v>
       </c>
       <c r="R9">
-        <v>0.0005599939615999396</v>
+        <v>0.0005598430375984304</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1050,7 +1050,7 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <v>0.7964020213160201</v>
+        <v>0.8545578771855787</v>
       </c>
       <c r="D10">
         <v>-0.006061106124611061</v>
@@ -1059,31 +1059,31 @@
         <v>-0.006895493624954936</v>
       </c>
       <c r="G10">
-        <v>0.004700755607007556</v>
+        <v>0.004700747651007477</v>
       </c>
       <c r="I10">
         <v>-0.01352269466722695</v>
       </c>
       <c r="J10">
-        <v>-0.005319358673903201</v>
+        <v>-0.007136554437844818</v>
       </c>
       <c r="K10">
-        <v>0.01010784138507841</v>
+        <v>0.009920643555206434</v>
       </c>
       <c r="L10">
-        <v>0.01010784138507841</v>
+        <v>0.009920643555206434</v>
       </c>
       <c r="O10">
-        <v>0.01010784138507841</v>
+        <v>0.009920643555206434</v>
       </c>
       <c r="P10">
-        <v>-0.00503898099838981</v>
+        <v>-0.005039004038390041</v>
       </c>
       <c r="Q10">
-        <v>0.01104753727447537</v>
+        <v>0.01104767270647673</v>
       </c>
       <c r="R10">
-        <v>0.01104753727447537</v>
+        <v>0.01104767270647673</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1094,7 +1094,7 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>0.001448268626482686</v>
+        <v>0.001454937266549373</v>
       </c>
       <c r="D11">
         <v>-1.081171210811712E-05</v>
@@ -1103,31 +1103,31 @@
         <v>-0.005175242439752424</v>
       </c>
       <c r="G11">
-        <v>0.00591401786314018</v>
+        <v>0.005913975047139751</v>
       </c>
       <c r="I11">
         <v>0.002771770503717705</v>
       </c>
       <c r="J11">
-        <v>0.005252775380975628</v>
+        <v>0.01723506822063492</v>
       </c>
       <c r="K11">
-        <v>0.003780566941805669</v>
+        <v>0.003937933779379337</v>
       </c>
       <c r="L11">
-        <v>0.003780566941805669</v>
+        <v>0.003937933779379337</v>
       </c>
       <c r="O11">
-        <v>0.003780566941805669</v>
+        <v>0.003937933779379337</v>
       </c>
       <c r="P11">
-        <v>-0.005733264837332648</v>
+        <v>-0.005733171417331714</v>
       </c>
       <c r="Q11">
-        <v>-0.003799011373990114</v>
+        <v>-0.003799149673991497</v>
       </c>
       <c r="R11">
-        <v>-0.003799011373990114</v>
+        <v>-0.003799149673991497</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1138,7 +1138,7 @@
         <v>61</v>
       </c>
       <c r="C12">
-        <v>0.02340152121001521</v>
+        <v>0.02242364640823646</v>
       </c>
       <c r="D12">
         <v>0.01840892352408923</v>
@@ -1147,31 +1147,31 @@
         <v>-0.003189651091896511</v>
       </c>
       <c r="G12">
-        <v>0.003990192483901925</v>
+        <v>0.003990172719901727</v>
       </c>
       <c r="I12">
         <v>0.01085815368058154</v>
       </c>
       <c r="J12">
-        <v>-0.0007168314450009683</v>
+        <v>0.01150818546585339</v>
       </c>
       <c r="K12">
-        <v>0.0003520321475203215</v>
+        <v>0.0006364590183645901</v>
       </c>
       <c r="L12">
-        <v>0.0003520321475203215</v>
+        <v>0.0006364590183645901</v>
       </c>
       <c r="O12">
-        <v>0.0003520321475203215</v>
+        <v>0.0006364590183645901</v>
       </c>
       <c r="P12">
-        <v>-0.003884918438849185</v>
+        <v>-0.003884842814848429</v>
       </c>
       <c r="Q12">
-        <v>-0.009241596404415964</v>
+        <v>-0.009241568252415684</v>
       </c>
       <c r="R12">
-        <v>-0.009241596404415964</v>
+        <v>-0.009241568252415684</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1182,7 +1182,7 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>0.06585021727050218</v>
+        <v>0.05746713559067135</v>
       </c>
       <c r="D13">
         <v>-0.02004360854043609</v>
@@ -1191,31 +1191,31 @@
         <v>-0.007585990971859909</v>
       </c>
       <c r="G13">
-        <v>0.005438110326381103</v>
+        <v>0.005438129214381292</v>
       </c>
       <c r="I13">
         <v>-0.01194973619949736</v>
       </c>
       <c r="J13">
-        <v>0.0004761254097040933</v>
+        <v>0.003781391460840108</v>
       </c>
       <c r="K13">
-        <v>0.01088442199284422</v>
+        <v>0.01064570092645701</v>
       </c>
       <c r="L13">
-        <v>0.01088442199284422</v>
+        <v>0.01064570092645701</v>
       </c>
       <c r="O13">
-        <v>0.01088442199284422</v>
+        <v>0.01064570092645701</v>
       </c>
       <c r="P13">
-        <v>-0.0057813599738136</v>
+        <v>-0.00578126805381268</v>
       </c>
       <c r="Q13">
-        <v>0.009415369222153691</v>
+        <v>0.009415507618155074</v>
       </c>
       <c r="R13">
-        <v>0.009415369222153691</v>
+        <v>0.009415507618155074</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1224,7 +1224,7 @@
         <v>63</v>
       </c>
       <c r="C14">
-        <v>-0.3895465485914654</v>
+        <v>-0.3322597554105975</v>
       </c>
       <c r="D14">
         <v>-0.003031562910315629</v>
@@ -1233,31 +1233,31 @@
         <v>0.008068817480688174</v>
       </c>
       <c r="G14">
-        <v>-0.01006396808863968</v>
+        <v>-0.0100639496446395</v>
       </c>
       <c r="I14">
         <v>-0.01286350575263506</v>
       </c>
       <c r="J14">
-        <v>0.02042092644307471</v>
+        <v>0.001701556747794738</v>
       </c>
       <c r="K14">
-        <v>-0.00308593895485939</v>
+        <v>-0.003582518303825184</v>
       </c>
       <c r="L14">
-        <v>-0.00308593895485939</v>
+        <v>-0.003582518303825184</v>
       </c>
       <c r="O14">
-        <v>-0.00308593895485939</v>
+        <v>-0.003582518303825184</v>
       </c>
       <c r="P14">
-        <v>0.009788086573880864</v>
+        <v>0.009788089561880896</v>
       </c>
       <c r="Q14">
-        <v>0.01350340435503405</v>
+        <v>0.01350342097503421</v>
       </c>
       <c r="R14">
-        <v>0.01350340435503405</v>
+        <v>0.01350342097503421</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1268,7 +1268,7 @@
         <v>64</v>
       </c>
       <c r="C15">
-        <v>-0.001020167230201672</v>
+        <v>-0.001239005208390052</v>
       </c>
       <c r="D15">
         <v>-0.002824025776240258</v>
@@ -1277,31 +1277,31 @@
         <v>0.01426839623868396</v>
       </c>
       <c r="G15">
-        <v>-0.01378960475389605</v>
+        <v>-0.0137895706498957</v>
       </c>
       <c r="I15">
         <v>-0.003398390469983904</v>
       </c>
       <c r="J15">
-        <v>0.008598888980448582</v>
+        <v>0.009683638670530195</v>
       </c>
       <c r="K15">
-        <v>-0.01386082645860826</v>
+        <v>-0.01398232229582322</v>
       </c>
       <c r="L15">
-        <v>-0.01386082645860826</v>
+        <v>-0.01398232229582322</v>
       </c>
       <c r="O15">
-        <v>-0.01386082645860826</v>
+        <v>-0.01398232229582322</v>
       </c>
       <c r="P15">
-        <v>0.01389130798291308</v>
+        <v>0.01389131745091317</v>
       </c>
       <c r="Q15">
-        <v>0.005967026183670262</v>
+        <v>0.005967246083672461</v>
       </c>
       <c r="R15">
-        <v>0.005967026183670262</v>
+        <v>0.005967246083672461</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1312,7 +1312,7 @@
         <v>64</v>
       </c>
       <c r="C16">
-        <v>-0.009858349610583496</v>
+        <v>-0.01103635674236357</v>
       </c>
       <c r="D16">
         <v>0.0007758225677582258</v>
@@ -1321,31 +1321,31 @@
         <v>0.01503178803031788</v>
       </c>
       <c r="G16">
-        <v>-0.01418759817387598</v>
+        <v>-0.01418768651787687</v>
       </c>
       <c r="I16">
         <v>0.002432909856329098</v>
       </c>
       <c r="J16">
-        <v>-0.001069717528064148</v>
+        <v>-0.01102463233160256</v>
       </c>
       <c r="K16">
-        <v>-0.01494174724141747</v>
+        <v>-0.01502075406620754</v>
       </c>
       <c r="L16">
-        <v>-0.01494174724141747</v>
+        <v>-0.01502075406620754</v>
       </c>
       <c r="O16">
-        <v>-0.01494174724141747</v>
+        <v>-0.01502075406620754</v>
       </c>
       <c r="P16">
-        <v>0.0143992403519924</v>
+        <v>0.01439933552399335</v>
       </c>
       <c r="Q16">
-        <v>-0.0001113944411139444</v>
+        <v>-0.0001111388651113887</v>
       </c>
       <c r="R16">
-        <v>-0.0001113944411139444</v>
+        <v>-0.0001111388651113887</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1356,7 +1356,7 @@
         <v>65</v>
       </c>
       <c r="C17">
-        <v>0.009346305609463057</v>
+        <v>0.007222383444223835</v>
       </c>
       <c r="D17">
         <v>0.01176501519365015</v>
@@ -1365,31 +1365,31 @@
         <v>0.02274573815945738</v>
       </c>
       <c r="G17">
-        <v>-0.02242345634023456</v>
+        <v>-0.02242337476423375</v>
       </c>
       <c r="I17">
         <v>0.00319643202796432</v>
       </c>
       <c r="J17">
-        <v>0.001232225492006765</v>
+        <v>-0.02766299340498926</v>
       </c>
       <c r="K17">
-        <v>-0.02199983813199838</v>
+        <v>-0.02215470139754702</v>
       </c>
       <c r="L17">
-        <v>-0.02199983813199838</v>
+        <v>-0.02215470139754702</v>
       </c>
       <c r="O17">
-        <v>-0.02199983813199838</v>
+        <v>-0.02215470139754702</v>
       </c>
       <c r="P17">
-        <v>0.02251871129718711</v>
+        <v>0.0225186794611868</v>
       </c>
       <c r="Q17">
-        <v>0.003356589633565897</v>
+        <v>0.003356575461565755</v>
       </c>
       <c r="R17">
-        <v>0.003356589633565897</v>
+        <v>0.003356575461565755</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1400,7 +1400,7 @@
         <v>64</v>
       </c>
       <c r="C18">
-        <v>0.01038903382389034</v>
+        <v>0.009983408115834081</v>
       </c>
       <c r="D18">
         <v>-0.001414514918145149</v>
@@ -1409,31 +1409,31 @@
         <v>-0.007973362219733621</v>
       </c>
       <c r="G18">
-        <v>0.006452998756529987</v>
+        <v>0.006453022708530227</v>
       </c>
       <c r="I18">
         <v>-0.007411613726116137</v>
       </c>
       <c r="J18">
-        <v>-0.0104102930480422</v>
+        <v>0.005380167070571741</v>
       </c>
       <c r="K18">
-        <v>0.0100311199363112</v>
+        <v>0.009916000491160004</v>
       </c>
       <c r="L18">
-        <v>0.0100311199363112</v>
+        <v>0.009916000491160004</v>
       </c>
       <c r="O18">
-        <v>0.0100311199363112</v>
+        <v>0.009916000491160004</v>
       </c>
       <c r="P18">
-        <v>-0.006744968419449685</v>
+        <v>-0.006744865663448656</v>
       </c>
       <c r="Q18">
-        <v>0.005504478475044785</v>
+        <v>0.005504335771043358</v>
       </c>
       <c r="R18">
-        <v>0.005504478475044785</v>
+        <v>0.005504335771043358</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1442,7 +1442,7 @@
         <v>66</v>
       </c>
       <c r="C19">
-        <v>0.01504144599041446</v>
+        <v>0.01303935044239351</v>
       </c>
       <c r="D19">
         <v>0.01707790277077903</v>
@@ -1451,31 +1451,31 @@
         <v>-0.001266844740668447</v>
       </c>
       <c r="G19">
-        <v>0.002432352912323529</v>
+        <v>0.00243229303232293</v>
       </c>
       <c r="I19">
         <v>0.003279366788793668</v>
       </c>
       <c r="J19">
-        <v>0.002298837210385836</v>
+        <v>-0.003291090904601299</v>
       </c>
       <c r="K19">
-        <v>-0.001971045907710459</v>
+        <v>-0.001594103247941033</v>
       </c>
       <c r="L19">
-        <v>-0.001971045907710459</v>
+        <v>-0.001594103247941033</v>
       </c>
       <c r="O19">
-        <v>-0.001971045907710459</v>
+        <v>-0.001594103247941033</v>
       </c>
       <c r="P19">
-        <v>-0.002283670126836702</v>
+        <v>-0.002283651814836518</v>
       </c>
       <c r="Q19">
-        <v>-0.003078946314789463</v>
+        <v>-0.003079021770790218</v>
       </c>
       <c r="R19">
-        <v>-0.003078946314789463</v>
+        <v>-0.003079021770790218</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1486,7 +1486,7 @@
         <v>67</v>
       </c>
       <c r="C20">
-        <v>-0.005117279355172794</v>
+        <v>-0.005469494166694942</v>
       </c>
       <c r="D20">
         <v>-0.007641676312416763</v>
@@ -1495,31 +1495,31 @@
         <v>-0.01786145849861458</v>
       </c>
       <c r="G20">
-        <v>0.01436002155560021</v>
+        <v>0.01436012593160126</v>
       </c>
       <c r="I20">
         <v>-0.01815538873355389</v>
       </c>
       <c r="J20">
-        <v>-0.001053307872551665</v>
+        <v>-0.003603967652707635</v>
       </c>
       <c r="K20">
-        <v>0.02298689530986895</v>
+        <v>0.02266324105063241</v>
       </c>
       <c r="L20">
-        <v>0.02298689530986895</v>
+        <v>0.02266324105063241</v>
       </c>
       <c r="O20">
-        <v>0.02298689530986895</v>
+        <v>0.02266324105063241</v>
       </c>
       <c r="P20">
-        <v>-0.01494856254548562</v>
+        <v>-0.01494858698948587</v>
       </c>
       <c r="Q20">
-        <v>0.013569399951694</v>
+        <v>0.01356954648369546</v>
       </c>
       <c r="R20">
-        <v>0.013569399951694</v>
+        <v>0.01356954648369546</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1530,7 +1530,7 @@
         <v>68</v>
       </c>
       <c r="C21">
-        <v>-0.0005264282812642828</v>
+        <v>-0.002222023486220235</v>
       </c>
       <c r="D21">
         <v>0.004832216064322161</v>
@@ -1539,31 +1539,31 @@
         <v>-0.00722498906424989</v>
       </c>
       <c r="G21">
-        <v>0.007406729714067297</v>
+        <v>0.00740673099806731</v>
       </c>
       <c r="I21">
         <v>0.008924217461242175</v>
       </c>
       <c r="J21">
-        <v>-0.008727592835608923</v>
+        <v>-0.001114630384170283</v>
       </c>
       <c r="K21">
-        <v>0.005743474317434743</v>
+        <v>0.005943933527439335</v>
       </c>
       <c r="L21">
-        <v>0.005743474317434743</v>
+        <v>0.005943933527439335</v>
       </c>
       <c r="O21">
-        <v>0.005743474317434743</v>
+        <v>0.005943933527439335</v>
       </c>
       <c r="P21">
-        <v>-0.00736403906564039</v>
+        <v>-0.007364077441640775</v>
       </c>
       <c r="Q21">
-        <v>-0.01022871693028717</v>
+        <v>-0.01022872086628721</v>
       </c>
       <c r="R21">
-        <v>-0.01022871693028717</v>
+        <v>-0.01022872086628721</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1572,7 +1572,7 @@
         <v>69</v>
       </c>
       <c r="C22">
-        <v>-0.01639554828795548</v>
+        <v>-0.0153299199572992</v>
       </c>
       <c r="D22">
         <v>-7.972794079727941E-05</v>
@@ -1581,31 +1581,31 @@
         <v>0.005052810602528106</v>
       </c>
       <c r="G22">
-        <v>-0.003314874285148743</v>
+        <v>-0.003314801673148016</v>
       </c>
       <c r="I22">
         <v>0.01234974757549748</v>
       </c>
       <c r="J22">
-        <v>-0.005769475396795061</v>
+        <v>0.0233971386742006</v>
       </c>
       <c r="K22">
-        <v>-0.007554355779543558</v>
+        <v>-0.00736820796168208</v>
       </c>
       <c r="L22">
-        <v>-0.007554355779543558</v>
+        <v>-0.00736820796168208</v>
       </c>
       <c r="O22">
-        <v>-0.007554355779543558</v>
+        <v>-0.00736820796168208</v>
       </c>
       <c r="P22">
-        <v>0.003587961047879611</v>
+        <v>0.003588061595880616</v>
       </c>
       <c r="Q22">
-        <v>-0.01147721525477215</v>
+        <v>-0.01147711399877114</v>
       </c>
       <c r="R22">
-        <v>-0.01147721525477215</v>
+        <v>-0.01147711399877114</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1614,7 +1614,7 @@
         <v>70</v>
       </c>
       <c r="C23">
-        <v>0.01076587888765879</v>
+        <v>0.009907030239070302</v>
       </c>
       <c r="D23">
         <v>0.01001911825619118</v>
@@ -1623,31 +1623,31 @@
         <v>-0.004160863601608636</v>
       </c>
       <c r="G23">
-        <v>0.002944398821443988</v>
+        <v>0.002944463213444632</v>
       </c>
       <c r="I23">
         <v>-0.003436791538367916</v>
       </c>
       <c r="J23">
-        <v>-0.0002795606042453842</v>
+        <v>0.006722266469957077</v>
       </c>
       <c r="K23">
-        <v>0.005341132325411323</v>
+        <v>0.005261891728618917</v>
       </c>
       <c r="L23">
-        <v>0.005341132325411323</v>
+        <v>0.005261891728618917</v>
       </c>
       <c r="O23">
-        <v>0.005341132325411323</v>
+        <v>0.005261891728618917</v>
       </c>
       <c r="P23">
-        <v>-0.003215914640159146</v>
+        <v>-0.003215894576158946</v>
       </c>
       <c r="Q23">
-        <v>0.002592775813927758</v>
+        <v>0.002592858781928588</v>
       </c>
       <c r="R23">
-        <v>0.002592775813927758</v>
+        <v>0.002592858781928588</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1656,7 +1656,7 @@
         <v>71</v>
       </c>
       <c r="C24">
-        <v>-0.00781727506217275</v>
+        <v>-0.007484067962840679</v>
       </c>
       <c r="D24">
         <v>-0.01110188474701885</v>
@@ -1665,31 +1665,31 @@
         <v>0.01063674131836741</v>
       </c>
       <c r="G24">
-        <v>-0.01189151091491511</v>
+        <v>-0.01189149077891491</v>
       </c>
       <c r="I24">
         <v>-0.01186555706265557</v>
       </c>
       <c r="J24">
-        <v>0.009095405487832397</v>
+        <v>0.003341749592613527</v>
       </c>
       <c r="K24">
-        <v>-0.006975428817754288</v>
+        <v>-0.007367750965677509</v>
       </c>
       <c r="L24">
-        <v>-0.006975428817754288</v>
+        <v>-0.007367750965677509</v>
       </c>
       <c r="O24">
-        <v>-0.006975428817754288</v>
+        <v>-0.007367750965677509</v>
       </c>
       <c r="P24">
-        <v>0.01170826774508268</v>
+        <v>0.01170831188108312</v>
       </c>
       <c r="Q24">
-        <v>0.01442587431625874</v>
+        <v>0.01442553885625539</v>
       </c>
       <c r="R24">
-        <v>0.01442587431625874</v>
+        <v>0.01442553885625539</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1700,7 +1700,7 @@
         <v>72</v>
       </c>
       <c r="C25">
-        <v>-0.001441438262414383</v>
+        <v>-0.001530912183309122</v>
       </c>
       <c r="D25">
         <v>0.001704990857049909</v>
@@ -1709,31 +1709,31 @@
         <v>-0.000452659600526596</v>
       </c>
       <c r="G25">
-        <v>-0.0006427605664276056</v>
+        <v>-0.0006428198464281985</v>
       </c>
       <c r="I25">
         <v>-0.002945604629456046</v>
       </c>
       <c r="J25">
-        <v>-0.00740062442629545</v>
+        <v>-0.001784098507290593</v>
       </c>
       <c r="K25">
-        <v>0.002338950911389509</v>
+        <v>0.002198429085984291</v>
       </c>
       <c r="L25">
-        <v>0.002338950911389509</v>
+        <v>0.002198429085984291</v>
       </c>
       <c r="O25">
-        <v>0.002338950911389509</v>
+        <v>0.002198429085984291</v>
       </c>
       <c r="P25">
-        <v>0.0004945113889451139</v>
+        <v>0.0004946027449460275</v>
       </c>
       <c r="Q25">
-        <v>0.002439610620396106</v>
+        <v>0.002439625956396259</v>
       </c>
       <c r="R25">
-        <v>0.002439610620396106</v>
+        <v>0.002439625956396259</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1742,7 +1742,7 @@
         <v>73</v>
       </c>
       <c r="C26">
-        <v>0.01065366255453663</v>
+        <v>0.01250825148508252</v>
       </c>
       <c r="D26">
         <v>-0.01081725564017256</v>
@@ -1751,31 +1751,31 @@
         <v>0.0169752300857523</v>
       </c>
       <c r="G26">
-        <v>-0.01805017777250178</v>
+        <v>-0.01805008928450089</v>
       </c>
       <c r="I26">
         <v>-0.01127384160473842</v>
       </c>
       <c r="J26">
-        <v>0.00237731744205248</v>
+        <v>-0.0005672127133580726</v>
       </c>
       <c r="K26">
-        <v>-0.01329264138092641</v>
+        <v>-0.01374103912141039</v>
       </c>
       <c r="L26">
-        <v>-0.01329264138092641</v>
+        <v>-0.01374103912141039</v>
       </c>
       <c r="O26">
-        <v>-0.01329264138092641</v>
+        <v>-0.01374103912141039</v>
       </c>
       <c r="P26">
-        <v>0.01787036576270366</v>
+        <v>0.01787031260270313</v>
       </c>
       <c r="Q26">
-        <v>0.01453068502930685</v>
+        <v>0.0145307602093076</v>
       </c>
       <c r="R26">
-        <v>0.01453068502930685</v>
+        <v>0.0145307602093076</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1786,7 +1786,7 @@
         <v>74</v>
       </c>
       <c r="C27">
-        <v>0.001094647714946477</v>
+        <v>0.001352522245525222</v>
       </c>
       <c r="D27">
         <v>-0.001261675212616752</v>
@@ -1795,31 +1795,31 @@
         <v>0.009384325893843259</v>
       </c>
       <c r="G27">
-        <v>-0.008708061243080613</v>
+        <v>-0.008708047527080475</v>
       </c>
       <c r="I27">
         <v>-0.00086405698464057</v>
       </c>
       <c r="J27">
-        <v>-0.01031312836823465</v>
+        <v>-0.02477391774017864</v>
       </c>
       <c r="K27">
-        <v>-0.009528514571285144</v>
+        <v>-0.009622715124227152</v>
       </c>
       <c r="L27">
-        <v>-0.009528514571285144</v>
+        <v>-0.009622715124227152</v>
       </c>
       <c r="O27">
-        <v>-0.009528514571285144</v>
+        <v>-0.009622715124227152</v>
       </c>
       <c r="P27">
-        <v>0.008800909780009098</v>
+        <v>0.008800857088008571</v>
       </c>
       <c r="Q27">
-        <v>0.002543848477438485</v>
+        <v>0.002543902369439023</v>
       </c>
       <c r="R27">
-        <v>0.002543848477438485</v>
+        <v>0.002543902369439023</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -1828,7 +1828,7 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>-0.001436815178368152</v>
+        <v>-0.003193046971930469</v>
       </c>
       <c r="D28">
         <v>0.01474209685542097</v>
@@ -1837,31 +1837,31 @@
         <v>0.01052782608927826</v>
       </c>
       <c r="G28">
-        <v>-0.008754738471547384</v>
+        <v>-0.008754779667547796</v>
       </c>
       <c r="I28">
         <v>0.005605828808058287</v>
       </c>
       <c r="J28">
-        <v>-0.01231322830437707</v>
+        <v>-0.003966876705473681</v>
       </c>
       <c r="K28">
-        <v>-0.01263032373030324</v>
+        <v>-0.01251155544511555</v>
       </c>
       <c r="L28">
-        <v>-0.01263032373030324</v>
+        <v>-0.01251155544511555</v>
       </c>
       <c r="O28">
-        <v>-0.01263032373030324</v>
+        <v>-0.01251155544511555</v>
       </c>
       <c r="P28">
-        <v>0.009095991438959915</v>
+        <v>0.009095971206959711</v>
       </c>
       <c r="Q28">
-        <v>-0.0030790300267903</v>
+        <v>-0.003079097298790973</v>
       </c>
       <c r="R28">
-        <v>-0.0030790300267903</v>
+        <v>-0.003079097298790973</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -1872,7 +1872,7 @@
         <v>76</v>
       </c>
       <c r="C29">
-        <v>0.006452290744522906</v>
+        <v>0.007425237398252374</v>
       </c>
       <c r="D29">
         <v>-0.005577593131775931</v>
@@ -1881,31 +1881,31 @@
         <v>-0.006938447637384477</v>
       </c>
       <c r="G29">
-        <v>0.007062883522628836</v>
+        <v>0.007062875302628753</v>
       </c>
       <c r="I29">
         <v>0.000216185894161859</v>
       </c>
       <c r="J29">
-        <v>-0.007956048375177287</v>
+        <v>-0.02470315357073039</v>
       </c>
       <c r="K29">
-        <v>0.006349576191495761</v>
+        <v>0.006394541811945417</v>
       </c>
       <c r="L29">
-        <v>0.006349576191495761</v>
+        <v>0.006394541811945417</v>
       </c>
       <c r="O29">
-        <v>0.006349576191495761</v>
+        <v>0.006394541811945417</v>
       </c>
       <c r="P29">
-        <v>-0.007027502362275023</v>
+        <v>-0.007027341322273414</v>
       </c>
       <c r="Q29">
-        <v>-0.00296043894560439</v>
+        <v>-0.002960456069604561</v>
       </c>
       <c r="R29">
-        <v>-0.00296043894560439</v>
+        <v>-0.002960456069604561</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -1916,7 +1916,7 @@
         <v>77</v>
       </c>
       <c r="C30">
-        <v>-0.01002327134823271</v>
+        <v>-0.01029590925095909</v>
       </c>
       <c r="D30">
         <v>0.004842115728421158</v>
@@ -1925,31 +1925,31 @@
         <v>-0.004563720189637202</v>
       </c>
       <c r="G30">
-        <v>0.003558136199581362</v>
+        <v>0.003558249335582493</v>
       </c>
       <c r="I30">
         <v>0.001652552092525521</v>
       </c>
       <c r="J30">
-        <v>-0.000993989891129525</v>
+        <v>-0.01832082725630868</v>
       </c>
       <c r="K30">
-        <v>0.005420435922204359</v>
+        <v>0.005422220238222203</v>
       </c>
       <c r="L30">
-        <v>0.005420435922204359</v>
+        <v>0.005422220238222203</v>
       </c>
       <c r="O30">
-        <v>0.005420435922204359</v>
+        <v>0.005422220238222203</v>
       </c>
       <c r="P30">
-        <v>-0.003743843665438437</v>
+        <v>-0.003743759953437599</v>
       </c>
       <c r="Q30">
-        <v>-0.002027366900273669</v>
+        <v>-0.002027279780272798</v>
       </c>
       <c r="R30">
-        <v>-0.002027366900273669</v>
+        <v>-0.002027279780272798</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -1960,7 +1960,7 @@
         <v>78</v>
       </c>
       <c r="C31">
-        <v>-0.004485533864855338</v>
+        <v>-0.003943717347437173</v>
       </c>
       <c r="D31">
         <v>-0.01621171205411712</v>
@@ -1969,31 +1969,31 @@
         <v>-0.01411945787719458</v>
       </c>
       <c r="G31">
-        <v>0.01164033396840334</v>
+        <v>0.01164033768840338</v>
       </c>
       <c r="I31">
         <v>-0.01261317689413177</v>
       </c>
       <c r="J31">
-        <v>-0.008947453151941407</v>
+        <v>-0.008248923216413916</v>
       </c>
       <c r="K31">
-        <v>0.01769144288091443</v>
+        <v>0.01752921561129216</v>
       </c>
       <c r="L31">
-        <v>0.01769144288091443</v>
+        <v>0.01752921561129216</v>
       </c>
       <c r="O31">
-        <v>0.01769144288091443</v>
+        <v>0.01752921561129216</v>
       </c>
       <c r="P31">
-        <v>-0.01198516754385168</v>
+        <v>-0.01198508353185084</v>
       </c>
       <c r="Q31">
-        <v>0.008162175657621756</v>
+        <v>0.008162315649623157</v>
       </c>
       <c r="R31">
-        <v>0.008162175657621756</v>
+        <v>0.008162315649623157</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2004,7 +2004,7 @@
         <v>79</v>
       </c>
       <c r="C32">
-        <v>0.004502812485028125</v>
+        <v>0.004292410194924102</v>
       </c>
       <c r="D32">
         <v>-0.002000245952002459</v>
@@ -2013,31 +2013,31 @@
         <v>0.01208221266082213</v>
       </c>
       <c r="G32">
-        <v>-0.01101434515414345</v>
+        <v>-0.01101436500214365</v>
       </c>
       <c r="I32">
         <v>0.003538420055384201</v>
       </c>
       <c r="J32">
-        <v>-0.009578108573421307</v>
+        <v>0.01201452579999125</v>
       </c>
       <c r="K32">
-        <v>-0.0127714203917142</v>
+        <v>-0.01282959588829596</v>
       </c>
       <c r="L32">
-        <v>-0.0127714203917142</v>
+        <v>-0.01282959588829596</v>
       </c>
       <c r="O32">
-        <v>-0.0127714203917142</v>
+        <v>-0.01282959588829596</v>
       </c>
       <c r="P32">
-        <v>0.0112275894402759</v>
+        <v>0.01122754266427543</v>
       </c>
       <c r="Q32">
-        <v>-0.002067776288677763</v>
+        <v>-0.002067745100677451</v>
       </c>
       <c r="R32">
-        <v>-0.002067776288677763</v>
+        <v>-0.002067745100677451</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2048,7 +2048,7 @@
         <v>80</v>
       </c>
       <c r="C33">
-        <v>0.006669402378694023</v>
+        <v>0.006810570692105707</v>
       </c>
       <c r="D33">
         <v>0.003653658888536589</v>
@@ -2057,31 +2057,31 @@
         <v>0.01221131852611319</v>
       </c>
       <c r="G33">
-        <v>-0.01226654360666544</v>
+        <v>-0.01226651054666511</v>
       </c>
       <c r="I33">
         <v>-0.003646842528468425</v>
       </c>
       <c r="J33">
-        <v>-0.001865365173587586</v>
+        <v>-0.005611960827168829</v>
       </c>
       <c r="K33">
-        <v>-0.01123550431635504</v>
+        <v>-0.01140373902603739</v>
       </c>
       <c r="L33">
-        <v>-0.01123550431635504</v>
+        <v>-0.01140373902603739</v>
       </c>
       <c r="O33">
-        <v>-0.01123550431635504</v>
+        <v>-0.01140373902603739</v>
       </c>
       <c r="P33">
-        <v>0.01226550711865507</v>
+        <v>0.01226545272265453</v>
       </c>
       <c r="Q33">
-        <v>0.006415334920153349</v>
+        <v>0.006415359748153598</v>
       </c>
       <c r="R33">
-        <v>0.006415334920153349</v>
+        <v>0.006415359748153598</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2092,7 +2092,7 @@
         <v>81</v>
       </c>
       <c r="C34">
-        <v>-0.0119280099112801</v>
+        <v>-0.01147543415475434</v>
       </c>
       <c r="D34">
         <v>-0.00284086194440862</v>
@@ -2101,31 +2101,31 @@
         <v>-0.003797909665979096</v>
       </c>
       <c r="G34">
-        <v>0.002920957565209575</v>
+        <v>0.002920887485208875</v>
       </c>
       <c r="I34">
         <v>0.001059064486590645</v>
       </c>
       <c r="J34">
-        <v>-0.008832337697212016</v>
+        <v>-0.001959847800349824</v>
       </c>
       <c r="K34">
-        <v>0.004866335400663354</v>
+        <v>0.004766548475665485</v>
       </c>
       <c r="L34">
-        <v>0.004866335400663354</v>
+        <v>0.004766548475665485</v>
       </c>
       <c r="O34">
-        <v>0.004866335400663354</v>
+        <v>0.004766548475665485</v>
       </c>
       <c r="P34">
-        <v>-0.003039192714391927</v>
+        <v>-0.003039210594392106</v>
       </c>
       <c r="Q34">
-        <v>-0.001251427728514277</v>
+        <v>-0.001251343800513438</v>
       </c>
       <c r="R34">
-        <v>-0.001251427728514277</v>
+        <v>-0.001251343800513438</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2136,7 +2136,7 @@
         <v>82</v>
       </c>
       <c r="C35">
-        <v>0.006607928958079289</v>
+        <v>0.007315074781150747</v>
       </c>
       <c r="D35">
         <v>0.006341509179415093</v>
@@ -2145,31 +2145,31 @@
         <v>-0.00618761901787619</v>
       </c>
       <c r="G35">
-        <v>0.006535963181359633</v>
+        <v>0.006536069561360695</v>
       </c>
       <c r="I35">
         <v>0.007674247276742472</v>
       </c>
       <c r="J35">
-        <v>-0.00523914351125855</v>
+        <v>0.009490887982062756</v>
       </c>
       <c r="K35">
-        <v>0.003789917113899171</v>
+        <v>0.004060433500604335</v>
       </c>
       <c r="L35">
-        <v>0.003789917113899171</v>
+        <v>0.004060433500604335</v>
       </c>
       <c r="O35">
-        <v>0.003789917113899171</v>
+        <v>0.004060433500604335</v>
       </c>
       <c r="P35">
-        <v>-0.006552412601524126</v>
+        <v>-0.006552299201522993</v>
       </c>
       <c r="Q35">
-        <v>-0.006893385128933852</v>
+        <v>-0.006893363732933638</v>
       </c>
       <c r="R35">
-        <v>-0.006893385128933852</v>
+        <v>-0.006893363732933638</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2180,7 +2180,7 @@
         <v>83</v>
       </c>
       <c r="C36">
-        <v>0.004843086720430868</v>
+        <v>0.004720488635204887</v>
       </c>
       <c r="D36">
         <v>-0.00246730699267307</v>
@@ -2189,31 +2189,31 @@
         <v>-0.006660562146605622</v>
       </c>
       <c r="G36">
-        <v>0.006342197283421972</v>
+        <v>0.006342095127420951</v>
       </c>
       <c r="I36">
         <v>-0.003909789351097893</v>
       </c>
       <c r="J36">
-        <v>-0.001360294595977555</v>
+        <v>0.01600660596503383</v>
       </c>
       <c r="K36">
-        <v>0.007067924626679246</v>
+        <v>0.007035479662354796</v>
       </c>
       <c r="L36">
-        <v>0.007067924626679246</v>
+        <v>0.007035479662354796</v>
       </c>
       <c r="O36">
-        <v>0.007067924626679246</v>
+        <v>0.007035479662354796</v>
       </c>
       <c r="P36">
-        <v>-0.006373467879734678</v>
+        <v>-0.006373411443734114</v>
       </c>
       <c r="Q36">
-        <v>0.0008670865406708654</v>
+        <v>0.0008672000606720007</v>
       </c>
       <c r="R36">
-        <v>0.0008670865406708654</v>
+        <v>0.0008672000606720007</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2224,7 +2224,7 @@
         <v>83</v>
       </c>
       <c r="C37">
-        <v>0.01212669256926693</v>
+        <v>0.01348064195080642</v>
       </c>
       <c r="D37">
         <v>-0.01519095769990958</v>
@@ -2233,31 +2233,31 @@
         <v>-0.004350263635502637</v>
       </c>
       <c r="G37">
-        <v>0.002917333709173337</v>
+        <v>0.002917414085174141</v>
       </c>
       <c r="I37">
         <v>-0.01092160471321605</v>
       </c>
       <c r="J37">
-        <v>0.001473701264908347</v>
+        <v>-0.01867953584016837</v>
       </c>
       <c r="K37">
-        <v>0.006668856174688562</v>
+        <v>0.006478347904783478</v>
       </c>
       <c r="L37">
-        <v>0.006668856174688562</v>
+        <v>0.006478347904783478</v>
       </c>
       <c r="O37">
-        <v>0.006668856174688562</v>
+        <v>0.006478347904783478</v>
       </c>
       <c r="P37">
-        <v>-0.003132168283321683</v>
+        <v>-0.003132085051320851</v>
       </c>
       <c r="Q37">
-        <v>0.00939261498992615</v>
+        <v>0.009392769069927691</v>
       </c>
       <c r="R37">
-        <v>0.00939261498992615</v>
+        <v>0.009392769069927691</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2268,7 +2268,7 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>-0.01889424700494247</v>
+        <v>-0.01834889247948892</v>
       </c>
       <c r="D38">
         <v>-0.01165142259251423</v>
@@ -2277,31 +2277,31 @@
         <v>-0.009333366825333669</v>
       </c>
       <c r="G38">
-        <v>0.008306871167068712</v>
+        <v>0.008306846891068469</v>
       </c>
       <c r="I38">
         <v>-0.005102683563026835</v>
       </c>
       <c r="J38">
-        <v>0.005770092895886653</v>
+        <v>-0.006729276779652332</v>
       </c>
       <c r="K38">
-        <v>0.01056858630968586</v>
+        <v>0.01049141364891414</v>
       </c>
       <c r="L38">
-        <v>0.01056858630968586</v>
+        <v>0.01049141364891414</v>
       </c>
       <c r="O38">
-        <v>0.01056858630968586</v>
+        <v>0.01049141364891414</v>
       </c>
       <c r="P38">
-        <v>-0.008495242308952423</v>
+        <v>-0.008495285280952853</v>
       </c>
       <c r="Q38">
-        <v>0.001717223525172235</v>
+        <v>0.001717187321171873</v>
       </c>
       <c r="R38">
-        <v>0.001717223525172235</v>
+        <v>0.001717187321171873</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2312,7 +2312,7 @@
         <v>83</v>
       </c>
       <c r="C39">
-        <v>0.021801800270018</v>
+        <v>0.02188013065480131</v>
       </c>
       <c r="D39">
         <v>0.007499023610990236</v>
@@ -2321,31 +2321,31 @@
         <v>-0.0125456598414566</v>
       </c>
       <c r="G39">
-        <v>0.01525254909252549</v>
+        <v>0.01525256460852564</v>
       </c>
       <c r="I39">
         <v>0.01373022698930227</v>
       </c>
       <c r="J39">
-        <v>-0.01123616116055558</v>
+        <v>0.01286626470778271</v>
       </c>
       <c r="K39">
-        <v>0.006833798300337983</v>
+        <v>0.007419311786193118</v>
       </c>
       <c r="L39">
-        <v>0.006833798300337983</v>
+        <v>0.007419311786193118</v>
       </c>
       <c r="O39">
-        <v>0.006833798300337983</v>
+        <v>0.007419311786193118</v>
       </c>
       <c r="P39">
-        <v>-0.01479230144792301</v>
+        <v>-0.01479228666392287</v>
       </c>
       <c r="Q39">
-        <v>-0.01630103220701032</v>
+        <v>-0.01630118211101182</v>
       </c>
       <c r="R39">
-        <v>-0.01630103220701032</v>
+        <v>-0.01630118211101182</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2356,7 +2356,7 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>-0.007429291058292911</v>
+        <v>-0.008218659826186598</v>
       </c>
       <c r="D40">
         <v>-0.003414632878146329</v>
@@ -2365,31 +2365,31 @@
         <v>-0.002776178715761787</v>
       </c>
       <c r="G40">
-        <v>0.00232299803922998</v>
+        <v>0.002323025663230257</v>
       </c>
       <c r="I40">
         <v>-0.0008631831926318319</v>
       </c>
       <c r="J40">
-        <v>-0.002732113167339602</v>
+        <v>0.01036132722542309</v>
       </c>
       <c r="K40">
-        <v>0.00369002593290026</v>
+        <v>0.003557097251570972</v>
       </c>
       <c r="L40">
-        <v>0.00369002593290026</v>
+        <v>0.003557097251570972</v>
       </c>
       <c r="O40">
-        <v>0.00369002593290026</v>
+        <v>0.003557097251570972</v>
       </c>
       <c r="P40">
-        <v>-0.002344363199443632</v>
+        <v>-0.002344328603443286</v>
       </c>
       <c r="Q40">
-        <v>-0.001095855934958559</v>
+        <v>-0.001095718222957182</v>
       </c>
       <c r="R40">
-        <v>-0.001095855934958559</v>
+        <v>-0.001095718222957182</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2400,7 +2400,7 @@
         <v>84</v>
       </c>
       <c r="C41">
-        <v>-0.06690960831309609</v>
+        <v>-0.06091563549315635</v>
       </c>
       <c r="D41">
         <v>-0.0122099903780999</v>
@@ -2409,31 +2409,31 @@
         <v>0.002048301476483015</v>
       </c>
       <c r="G41">
-        <v>-0.005951352167513522</v>
+        <v>-0.005951371427513714</v>
       </c>
       <c r="I41">
         <v>-0.0222368698263687</v>
       </c>
       <c r="J41">
-        <v>-0.01546594064109707</v>
+        <v>0.005190133967540941</v>
       </c>
       <c r="K41">
-        <v>0.005582478811824789</v>
+        <v>0.004928190577281906</v>
       </c>
       <c r="L41">
-        <v>0.005582478811824789</v>
+        <v>0.004928190577281906</v>
       </c>
       <c r="O41">
-        <v>0.005582478811824789</v>
+        <v>0.004928190577281906</v>
       </c>
       <c r="P41">
-        <v>0.005363573513635735</v>
+        <v>0.005363559821635598</v>
       </c>
       <c r="Q41">
-        <v>0.02212379182123792</v>
+        <v>0.02212391531323915</v>
       </c>
       <c r="R41">
-        <v>0.02212379182123792</v>
+        <v>0.02212391531323915</v>
       </c>
     </row>
   </sheetData>

--- a/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -794,40 +794,40 @@
         <v>55</v>
       </c>
       <c r="C4">
-        <v>0.01440289339202893</v>
+        <v>0.01892959717077496</v>
       </c>
       <c r="D4">
-        <v>0.00151221894312219</v>
+        <v>0.01112697495510899</v>
       </c>
       <c r="F4">
-        <v>0.007058907934589079</v>
+        <v>0.01022955367546178</v>
       </c>
       <c r="G4">
-        <v>-0.005520533863205339</v>
+        <v>-0.007312035559563056</v>
       </c>
       <c r="I4">
-        <v>0.002153747577537476</v>
+        <v>0.01338030803719231</v>
       </c>
       <c r="J4">
-        <v>0.01308909292273439</v>
+        <v>-0.004747987305210298</v>
       </c>
       <c r="K4">
-        <v>-0.009670113792701137</v>
+        <v>-0.01477400200428128</v>
       </c>
       <c r="L4">
-        <v>-0.009670113792701137</v>
+        <v>-0.01477400200428128</v>
       </c>
       <c r="O4">
-        <v>-0.009670113792701137</v>
+        <v>-0.01477400200428128</v>
       </c>
       <c r="P4">
-        <v>0.005761821105618212</v>
+        <v>0.007835798958371861</v>
       </c>
       <c r="Q4">
-        <v>-0.0005934396419343966</v>
+        <v>-0.008747433581991152</v>
       </c>
       <c r="R4">
-        <v>-0.0005934396419343966</v>
+        <v>-0.008747433581991152</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -836,40 +836,40 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <v>-0.00515163498351635</v>
+        <v>0.007525035281641177</v>
       </c>
       <c r="D5">
-        <v>0.0009778538137785381</v>
+        <v>-0.001765577465087148</v>
       </c>
       <c r="F5">
-        <v>-0.0002060764220607642</v>
+        <v>0.005826784942606016</v>
       </c>
       <c r="G5">
-        <v>-0.0003369943713699437</v>
+        <v>-0.005595666345244788</v>
       </c>
       <c r="I5">
-        <v>-0.002587492093874921</v>
+        <v>-0.004171708565182946</v>
       </c>
       <c r="J5">
-        <v>0.006668845768290496</v>
+        <v>0.004374862926255484</v>
       </c>
       <c r="K5">
-        <v>0.001860220098602201</v>
+        <v>-0.005379465107491643</v>
       </c>
       <c r="L5">
-        <v>0.001860220098602201</v>
+        <v>-0.005379465107491643</v>
       </c>
       <c r="O5">
-        <v>0.001860220098602201</v>
+        <v>-0.005379465107491643</v>
       </c>
       <c r="P5">
-        <v>0.0002731511547315115</v>
+        <v>0.005623005251921958</v>
       </c>
       <c r="Q5">
-        <v>0.002140893825408938</v>
+        <v>0.005699451417178929</v>
       </c>
       <c r="R5">
-        <v>0.002140893825408938</v>
+        <v>0.005699451417178929</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -878,40 +878,40 @@
         <v>57</v>
       </c>
       <c r="C6">
-        <v>0.2013467185294672</v>
+        <v>0.189944347913193</v>
       </c>
       <c r="D6">
-        <v>-0.02621256331012563</v>
+        <v>-0.01058144402471006</v>
       </c>
       <c r="F6">
-        <v>0.4974320143143202</v>
+        <v>0.5077653587463338</v>
       </c>
       <c r="G6">
-        <v>-0.5743239337392394</v>
+        <v>-0.5833155336768052</v>
       </c>
       <c r="I6">
-        <v>-0.5044343033683431</v>
+        <v>-0.4856624726666012</v>
       </c>
       <c r="J6">
-        <v>-0.006029562860108213</v>
+        <v>0.009183169013917108</v>
       </c>
       <c r="K6">
-        <v>-0.3229353394213534</v>
+        <v>-0.3365066690001042</v>
       </c>
       <c r="L6">
-        <v>-0.3229353394213534</v>
+        <v>-0.3365066690001042</v>
       </c>
       <c r="O6">
-        <v>-0.3229353394213534</v>
+        <v>-0.3365066690001042</v>
       </c>
       <c r="P6">
-        <v>0.5633483346654833</v>
+        <v>0.5724642148510034</v>
       </c>
       <c r="Q6">
-        <v>0.6107349038633491</v>
+        <v>0.5996747255808551</v>
       </c>
       <c r="R6">
-        <v>0.6107349038633491</v>
+        <v>0.5996747255808551</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -920,40 +920,40 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>0.1054215116022151</v>
+        <v>0.08369313472958025</v>
       </c>
       <c r="D7">
-        <v>0.02194901197549012</v>
+        <v>-0.00489838524059977</v>
       </c>
       <c r="F7">
-        <v>-0.8647421358794213</v>
+        <v>-0.8657743695042871</v>
       </c>
       <c r="G7">
-        <v>0.8025170823331709</v>
+        <v>0.8040591660477996</v>
       </c>
       <c r="I7">
-        <v>-0.2135558717395587</v>
+        <v>-0.2284945518827274</v>
       </c>
       <c r="J7">
-        <v>-0.01355334998215946</v>
+        <v>-0.008519209088443431</v>
       </c>
       <c r="K7">
-        <v>0.9094230263262302</v>
+        <v>0.909677486354336</v>
       </c>
       <c r="L7">
-        <v>0.9094230263262302</v>
+        <v>0.909677486354336</v>
       </c>
       <c r="O7">
-        <v>0.9094230263262302</v>
+        <v>0.909677486354336</v>
       </c>
       <c r="P7">
-        <v>-0.8137743156737433</v>
+        <v>-0.8153205574346962</v>
       </c>
       <c r="Q7">
-        <v>-0.01057316304973163</v>
+        <v>-0.001010116539220571</v>
       </c>
       <c r="R7">
-        <v>-0.01057316304973163</v>
+        <v>-0.001010116539220571</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -962,40 +962,40 @@
         <v>59</v>
       </c>
       <c r="C8">
-        <v>0.267310595409106</v>
+        <v>0.2887966894343233</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>-0.03042133081621331</v>
+        <v>0.0001068078297938724</v>
       </c>
       <c r="G8">
-        <v>0.162725404987254</v>
+        <v>0.13269951919843</v>
       </c>
       <c r="I8">
-        <v>0.8323062468790625</v>
+        <v>0.8352704148948503</v>
       </c>
       <c r="J8">
-        <v>0.0171801824781293</v>
+        <v>0.03193895510199415</v>
       </c>
       <c r="K8">
-        <v>-0.2185364135653641</v>
+        <v>-0.2471856712216512</v>
       </c>
       <c r="L8">
-        <v>-0.2185364135653641</v>
+        <v>-0.2471856712216512</v>
       </c>
       <c r="O8">
-        <v>-0.2185364135653641</v>
+        <v>-0.2471856712216512</v>
       </c>
       <c r="P8">
-        <v>-0.1426224411822244</v>
+        <v>-0.1123093031923329</v>
       </c>
       <c r="Q8">
-        <v>-0.7915405064954051</v>
+        <v>-0.7898638878181858</v>
       </c>
       <c r="R8">
-        <v>-0.7915405064954051</v>
+        <v>-0.7898638878181858</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1006,40 +1006,40 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>-0.002300694539006945</v>
+        <v>0.00324224383972256</v>
       </c>
       <c r="D9">
-        <v>-0.009849915098499151</v>
+        <v>0.01311056793141513</v>
       </c>
       <c r="F9">
-        <v>-0.01436892398368924</v>
+        <v>0.01880182834065357</v>
       </c>
       <c r="G9">
-        <v>0.0143724302637243</v>
+        <v>-0.01698852572638321</v>
       </c>
       <c r="I9">
-        <v>-0.006074135208741352</v>
+        <v>0.01345497494460899</v>
       </c>
       <c r="J9">
-        <v>0.01285627949782102</v>
+        <v>0.008157233211389425</v>
       </c>
       <c r="K9">
-        <v>0.01411060701310607</v>
+        <v>-0.02149165245299458</v>
       </c>
       <c r="L9">
-        <v>0.01411060701310607</v>
+        <v>-0.02149165245299458</v>
       </c>
       <c r="O9">
-        <v>0.01411060701310607</v>
+        <v>-0.02149165245299458</v>
       </c>
       <c r="P9">
-        <v>-0.01442908304429083</v>
+        <v>0.01738592164665503</v>
       </c>
       <c r="Q9">
-        <v>0.0005598430375984304</v>
+        <v>-0.007619222533112853</v>
       </c>
       <c r="R9">
-        <v>0.0005598430375984304</v>
+        <v>-0.007619222533112853</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1050,40 +1050,40 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <v>0.8545578771855787</v>
+        <v>0.8516795426434306</v>
       </c>
       <c r="D10">
-        <v>-0.006061106124611061</v>
+        <v>0.01630515048914298</v>
       </c>
       <c r="F10">
-        <v>-0.006895493624954936</v>
+        <v>-0.007136232017753627</v>
       </c>
       <c r="G10">
-        <v>0.004700747651007477</v>
+        <v>0.01191540374867819</v>
       </c>
       <c r="I10">
-        <v>-0.01352269466722695</v>
+        <v>0.02406508338382943</v>
       </c>
       <c r="J10">
-        <v>-0.007136554437844818</v>
+        <v>0.00490462470827543</v>
       </c>
       <c r="K10">
-        <v>0.009920643555206434</v>
+        <v>-0.00208706175917284</v>
       </c>
       <c r="L10">
-        <v>0.009920643555206434</v>
+        <v>-0.00208706175917284</v>
       </c>
       <c r="O10">
-        <v>0.009920643555206434</v>
+        <v>-0.00208706175917284</v>
       </c>
       <c r="P10">
-        <v>-0.005039004038390041</v>
+        <v>-0.01124426944912921</v>
       </c>
       <c r="Q10">
-        <v>0.01104767270647673</v>
+        <v>-0.0238998013812469</v>
       </c>
       <c r="R10">
-        <v>0.01104767270647673</v>
+        <v>-0.0238998013812469</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1094,40 +1094,40 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>0.001454937266549373</v>
+        <v>-0.002702849643794526</v>
       </c>
       <c r="D11">
-        <v>-1.081171210811712E-05</v>
+        <v>-0.002207518206367472</v>
       </c>
       <c r="F11">
-        <v>-0.005175242439752424</v>
+        <v>0.007025972898843328</v>
       </c>
       <c r="G11">
-        <v>0.005913975047139751</v>
+        <v>-0.00726756986355578</v>
       </c>
       <c r="I11">
-        <v>0.002771770503717705</v>
+        <v>-0.00260862585325978</v>
       </c>
       <c r="J11">
-        <v>0.01723506822063492</v>
+        <v>0.01735304103997119</v>
       </c>
       <c r="K11">
-        <v>0.003937933779379337</v>
+        <v>-0.006264896605701511</v>
       </c>
       <c r="L11">
-        <v>0.003937933779379337</v>
+        <v>-0.006264896605701511</v>
       </c>
       <c r="O11">
-        <v>0.003937933779379337</v>
+        <v>-0.006264896605701511</v>
       </c>
       <c r="P11">
-        <v>-0.005733171417331714</v>
+        <v>0.007163673135369895</v>
       </c>
       <c r="Q11">
-        <v>-0.003799149673991497</v>
+        <v>0.004253773238340208</v>
       </c>
       <c r="R11">
-        <v>-0.003799149673991497</v>
+        <v>0.004253773238340208</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1138,40 +1138,40 @@
         <v>61</v>
       </c>
       <c r="C12">
-        <v>0.02242364640823646</v>
+        <v>-0.0007903705904745406</v>
       </c>
       <c r="D12">
-        <v>0.01840892352408923</v>
+        <v>0.005172416705819012</v>
       </c>
       <c r="F12">
-        <v>-0.003189651091896511</v>
+        <v>-0.005699258573425917</v>
       </c>
       <c r="G12">
-        <v>0.003990172719901727</v>
+        <v>0.005246447097600737</v>
       </c>
       <c r="I12">
-        <v>0.01085815368058154</v>
+        <v>-0.001534798500543727</v>
       </c>
       <c r="J12">
-        <v>0.01150818546585339</v>
+        <v>-0.0125604570391079</v>
       </c>
       <c r="K12">
-        <v>0.0006364590183645901</v>
+        <v>0.005847754075746159</v>
       </c>
       <c r="L12">
-        <v>0.0006364590183645901</v>
+        <v>0.005847754075746159</v>
       </c>
       <c r="O12">
-        <v>0.0006364590183645901</v>
+        <v>0.005847754075746159</v>
       </c>
       <c r="P12">
-        <v>-0.003884842814848429</v>
+        <v>-0.005414087498657618</v>
       </c>
       <c r="Q12">
-        <v>-0.009241568252415684</v>
+        <v>0.001864551427571116</v>
       </c>
       <c r="R12">
-        <v>-0.009241568252415684</v>
+        <v>0.001864551427571116</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1182,40 +1182,40 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>0.05746713559067135</v>
+        <v>0.06600905791420403</v>
       </c>
       <c r="D13">
-        <v>-0.02004360854043609</v>
+        <v>-0.01257064383704131</v>
       </c>
       <c r="F13">
-        <v>-0.007585990971859909</v>
+        <v>-0.005962245819722592</v>
       </c>
       <c r="G13">
-        <v>0.005438129214381292</v>
+        <v>0.003372422162069097</v>
       </c>
       <c r="I13">
-        <v>-0.01194973619949736</v>
+        <v>-0.0132376190584003</v>
       </c>
       <c r="J13">
-        <v>0.003781391460840108</v>
+        <v>0.001044842292743523</v>
       </c>
       <c r="K13">
-        <v>0.01064570092645701</v>
+        <v>0.01055038336016224</v>
       </c>
       <c r="L13">
-        <v>0.01064570092645701</v>
+        <v>0.01055038336016224</v>
       </c>
       <c r="O13">
-        <v>0.01064570092645701</v>
+        <v>0.01055038336016224</v>
       </c>
       <c r="P13">
-        <v>-0.00578126805381268</v>
+        <v>-0.003813977075218392</v>
       </c>
       <c r="Q13">
-        <v>0.009415507618155074</v>
+        <v>0.01149652304682067</v>
       </c>
       <c r="R13">
-        <v>0.009415507618155074</v>
+        <v>0.01149652304682067</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1224,40 +1224,40 @@
         <v>63</v>
       </c>
       <c r="C14">
-        <v>-0.3322597554105975</v>
+        <v>-0.3392047180813238</v>
       </c>
       <c r="D14">
-        <v>-0.003031562910315629</v>
+        <v>-0.007575327587114496</v>
       </c>
       <c r="F14">
-        <v>0.008068817480688174</v>
+        <v>-0.007172863190200988</v>
       </c>
       <c r="G14">
-        <v>-0.0100639496446395</v>
+        <v>0.005041770688152668</v>
       </c>
       <c r="I14">
-        <v>-0.01286350575263506</v>
+        <v>-0.003006056578219635</v>
       </c>
       <c r="J14">
-        <v>0.001701556747794738</v>
+        <v>0.01085808232998882</v>
       </c>
       <c r="K14">
-        <v>-0.003582518303825184</v>
+        <v>0.009804565418821335</v>
       </c>
       <c r="L14">
-        <v>-0.003582518303825184</v>
+        <v>0.009804565418821335</v>
       </c>
       <c r="O14">
-        <v>-0.003582518303825184</v>
+        <v>0.009804565418821335</v>
       </c>
       <c r="P14">
-        <v>0.009788089561880896</v>
+        <v>-0.005335789817746716</v>
       </c>
       <c r="Q14">
-        <v>0.01350342097503421</v>
+        <v>0.00192525504570711</v>
       </c>
       <c r="R14">
-        <v>0.01350342097503421</v>
+        <v>0.00192525504570711</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1268,40 +1268,40 @@
         <v>64</v>
       </c>
       <c r="C15">
-        <v>-0.001239005208390052</v>
+        <v>-0.01930522797351919</v>
       </c>
       <c r="D15">
-        <v>-0.002824025776240258</v>
+        <v>-0.01679604588743822</v>
       </c>
       <c r="F15">
-        <v>0.01426839623868396</v>
+        <v>0.01064363058036923</v>
       </c>
       <c r="G15">
-        <v>-0.0137895706498957</v>
+        <v>-0.01258393336849896</v>
       </c>
       <c r="I15">
-        <v>-0.003398390469983904</v>
+        <v>-0.01718513499508024</v>
       </c>
       <c r="J15">
-        <v>0.009683638670530195</v>
+        <v>0.01127374481966635</v>
       </c>
       <c r="K15">
-        <v>-0.01398232229582322</v>
+        <v>-0.005719082433110664</v>
       </c>
       <c r="L15">
-        <v>-0.01398232229582322</v>
+        <v>-0.005719082433110664</v>
       </c>
       <c r="O15">
-        <v>-0.01398232229582322</v>
+        <v>-0.005719082433110664</v>
       </c>
       <c r="P15">
-        <v>0.01389131745091317</v>
+        <v>0.01222649299572645</v>
       </c>
       <c r="Q15">
-        <v>0.005967246083672461</v>
+        <v>0.01837838557622478</v>
       </c>
       <c r="R15">
-        <v>0.005967246083672461</v>
+        <v>0.01837838557622478</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1312,40 +1312,40 @@
         <v>64</v>
       </c>
       <c r="C16">
-        <v>-0.01103635674236357</v>
+        <v>0.02277005911359468</v>
       </c>
       <c r="D16">
-        <v>0.0007758225677582258</v>
+        <v>0.008682973330983959</v>
       </c>
       <c r="F16">
-        <v>0.01503178803031788</v>
+        <v>-0.0008708417245444021</v>
       </c>
       <c r="G16">
-        <v>-0.01418768651787687</v>
+        <v>-0.0002394303084285986</v>
       </c>
       <c r="I16">
-        <v>0.002432909856329098</v>
+        <v>-0.007096690751510795</v>
       </c>
       <c r="J16">
-        <v>-0.01102463233160256</v>
+        <v>0.01112118101106689</v>
       </c>
       <c r="K16">
-        <v>-0.01502075406620754</v>
+        <v>0.002744172816315201</v>
       </c>
       <c r="L16">
-        <v>-0.01502075406620754</v>
+        <v>0.002744172816315201</v>
       </c>
       <c r="O16">
-        <v>-0.01502075406620754</v>
+        <v>0.002744172816315201</v>
       </c>
       <c r="P16">
-        <v>0.01439933552399335</v>
+        <v>0.0001225392675396761</v>
       </c>
       <c r="Q16">
-        <v>-0.0001111388651113887</v>
+        <v>0.00751474734398043</v>
       </c>
       <c r="R16">
-        <v>-0.0001111388651113887</v>
+        <v>0.00751474734398043</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1356,40 +1356,40 @@
         <v>65</v>
       </c>
       <c r="C17">
-        <v>0.007222383444223835</v>
+        <v>0.01012984771296637</v>
       </c>
       <c r="D17">
-        <v>0.01176501519365015</v>
+        <v>0.01099503082804736</v>
       </c>
       <c r="F17">
-        <v>0.02274573815945738</v>
+        <v>0.0196412862209576</v>
       </c>
       <c r="G17">
-        <v>-0.02242337476423375</v>
+        <v>-0.01767494870585858</v>
       </c>
       <c r="I17">
-        <v>0.00319643202796432</v>
+        <v>0.006990568749852638</v>
       </c>
       <c r="J17">
-        <v>-0.02766299340498926</v>
+        <v>0.01480632225685179</v>
       </c>
       <c r="K17">
-        <v>-0.02215470139754702</v>
+        <v>-0.02184890741170168</v>
       </c>
       <c r="L17">
-        <v>-0.02215470139754702</v>
+        <v>-0.02184890741170168</v>
       </c>
       <c r="O17">
-        <v>-0.02215470139754702</v>
+        <v>-0.02184890741170168</v>
       </c>
       <c r="P17">
-        <v>0.0225186794611868</v>
+        <v>0.01801272862519888</v>
       </c>
       <c r="Q17">
-        <v>0.003356575461565755</v>
+        <v>-0.001879071427797991</v>
       </c>
       <c r="R17">
-        <v>0.003356575461565755</v>
+        <v>-0.001879071427797991</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1400,40 +1400,40 @@
         <v>64</v>
       </c>
       <c r="C18">
-        <v>0.009983408115834081</v>
+        <v>0.008666129338533272</v>
       </c>
       <c r="D18">
-        <v>-0.001414514918145149</v>
+        <v>0.002837576856837139</v>
       </c>
       <c r="F18">
-        <v>-0.007973362219733621</v>
+        <v>-0.0139142912174108</v>
       </c>
       <c r="G18">
-        <v>0.006453022708530227</v>
+        <v>0.01350950257046098</v>
       </c>
       <c r="I18">
-        <v>-0.007411613726116137</v>
+        <v>0.004994092531157696</v>
       </c>
       <c r="J18">
-        <v>0.005380167070571741</v>
+        <v>-0.01904575571521328</v>
       </c>
       <c r="K18">
-        <v>0.009916000491160004</v>
+        <v>0.01274859955075937</v>
       </c>
       <c r="L18">
-        <v>0.009916000491160004</v>
+        <v>0.01274859955075937</v>
       </c>
       <c r="O18">
-        <v>0.009916000491160004</v>
+        <v>0.01274859955075937</v>
       </c>
       <c r="P18">
-        <v>-0.006744865663448656</v>
+        <v>-0.01357731030589547</v>
       </c>
       <c r="Q18">
-        <v>0.005504335771043358</v>
+        <v>-0.008360703810323498</v>
       </c>
       <c r="R18">
-        <v>0.005504335771043358</v>
+        <v>-0.008360703810323498</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1442,40 +1442,40 @@
         <v>66</v>
       </c>
       <c r="C19">
-        <v>0.01303935044239351</v>
+        <v>-0.0137623931759749</v>
       </c>
       <c r="D19">
-        <v>0.01707790277077903</v>
+        <v>-0.02570739963605312</v>
       </c>
       <c r="F19">
-        <v>-0.001266844740668447</v>
+        <v>0.03200231946878625</v>
       </c>
       <c r="G19">
-        <v>0.00243229303232293</v>
+        <v>-0.0353411773959559</v>
       </c>
       <c r="I19">
-        <v>0.003279366788793668</v>
+        <v>-0.0224939451327179</v>
       </c>
       <c r="J19">
-        <v>-0.003291090904601299</v>
+        <v>-0.0036193681600153</v>
       </c>
       <c r="K19">
-        <v>-0.001594103247941033</v>
+        <v>-0.02411636137681815</v>
       </c>
       <c r="L19">
-        <v>-0.001594103247941033</v>
+        <v>-0.02411636137681815</v>
       </c>
       <c r="O19">
-        <v>-0.001594103247941033</v>
+        <v>-0.02411636137681815</v>
       </c>
       <c r="P19">
-        <v>-0.002283651814836518</v>
+        <v>0.03492614170978347</v>
       </c>
       <c r="Q19">
-        <v>-0.003079021770790218</v>
+        <v>0.03029201074675017</v>
       </c>
       <c r="R19">
-        <v>-0.003079021770790218</v>
+        <v>0.03029201074675017</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1486,40 +1486,40 @@
         <v>67</v>
       </c>
       <c r="C20">
-        <v>-0.005469494166694942</v>
+        <v>-0.006694745307730396</v>
       </c>
       <c r="D20">
-        <v>-0.007641676312416763</v>
+        <v>0.006780813410637711</v>
       </c>
       <c r="F20">
-        <v>-0.01786145849861458</v>
+        <v>-0.002759055019672735</v>
       </c>
       <c r="G20">
-        <v>0.01436012593160126</v>
+        <v>0.001782004340343818</v>
       </c>
       <c r="I20">
-        <v>-0.01815538873355389</v>
+        <v>-0.001809328692333261</v>
       </c>
       <c r="J20">
-        <v>-0.003603967652707635</v>
+        <v>-0.01010591676608182</v>
       </c>
       <c r="K20">
-        <v>0.02266324105063241</v>
+        <v>0.003510570406415163</v>
       </c>
       <c r="L20">
-        <v>0.02266324105063241</v>
+        <v>0.003510570406415163</v>
       </c>
       <c r="O20">
-        <v>0.02266324105063241</v>
+        <v>0.003510570406415163</v>
       </c>
       <c r="P20">
-        <v>-0.01494858698948587</v>
+        <v>-0.001997892546842071</v>
       </c>
       <c r="Q20">
-        <v>0.01356954648369546</v>
+        <v>0.002149583283587239</v>
       </c>
       <c r="R20">
-        <v>0.01356954648369546</v>
+        <v>0.002149583283587239</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1530,40 +1530,40 @@
         <v>68</v>
       </c>
       <c r="C21">
-        <v>-0.002222023486220235</v>
+        <v>0.01218730762792668</v>
       </c>
       <c r="D21">
-        <v>0.004832216064322161</v>
+        <v>-0.0001334091348970178</v>
       </c>
       <c r="F21">
-        <v>-0.00722498906424989</v>
+        <v>-0.00222173881596467</v>
       </c>
       <c r="G21">
-        <v>0.00740673099806731</v>
+        <v>0.0008312752864261765</v>
       </c>
       <c r="I21">
-        <v>0.008924217461242175</v>
+        <v>-0.01257238041519344</v>
       </c>
       <c r="J21">
-        <v>-0.001114630384170283</v>
+        <v>-0.01674846133275142</v>
       </c>
       <c r="K21">
-        <v>0.005943933527439335</v>
+        <v>0.005449034405453664</v>
       </c>
       <c r="L21">
-        <v>0.005943933527439335</v>
+        <v>0.005449034405453664</v>
       </c>
       <c r="O21">
-        <v>0.005943933527439335</v>
+        <v>0.005449034405453664</v>
       </c>
       <c r="P21">
-        <v>-0.007364077441640775</v>
+        <v>-0.001093152462393007</v>
       </c>
       <c r="Q21">
-        <v>-0.01022872086628721</v>
+        <v>0.009266454519788353</v>
       </c>
       <c r="R21">
-        <v>-0.01022872086628721</v>
+        <v>0.009266454519788353</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1572,40 +1572,40 @@
         <v>69</v>
       </c>
       <c r="C22">
-        <v>-0.0153299199572992</v>
+        <v>-0.01534070229438598</v>
       </c>
       <c r="D22">
-        <v>-7.972794079727941E-05</v>
+        <v>0.0117859004966547</v>
       </c>
       <c r="F22">
-        <v>0.005052810602528106</v>
+        <v>-0.006251334121114596</v>
       </c>
       <c r="G22">
-        <v>-0.003314801673148016</v>
+        <v>0.006645567197586989</v>
       </c>
       <c r="I22">
-        <v>0.01234974757549748</v>
+        <v>0.00135795454465554</v>
       </c>
       <c r="J22">
-        <v>0.0233971386742006</v>
+        <v>-0.003701234797341823</v>
       </c>
       <c r="K22">
-        <v>-0.00736820796168208</v>
+        <v>0.004836487341195116</v>
       </c>
       <c r="L22">
-        <v>-0.00736820796168208</v>
+        <v>0.004836487341195116</v>
       </c>
       <c r="O22">
-        <v>-0.00736820796168208</v>
+        <v>0.004836487341195116</v>
       </c>
       <c r="P22">
-        <v>0.003588061595880616</v>
+        <v>-0.006581915680967433</v>
       </c>
       <c r="Q22">
-        <v>-0.01147711399877114</v>
+        <v>-0.004506923109483174</v>
       </c>
       <c r="R22">
-        <v>-0.01147711399877114</v>
+        <v>-0.004506923109483174</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1614,40 +1614,40 @@
         <v>70</v>
       </c>
       <c r="C23">
-        <v>0.009907030239070302</v>
+        <v>-0.007147273236676147</v>
       </c>
       <c r="D23">
-        <v>0.01001911825619118</v>
+        <v>-0.02077025807453528</v>
       </c>
       <c r="F23">
-        <v>-0.004160863601608636</v>
+        <v>0.009590657892041532</v>
       </c>
       <c r="G23">
-        <v>0.002944463213444632</v>
+        <v>-0.0113595901071811</v>
       </c>
       <c r="I23">
-        <v>-0.003436791538367916</v>
+        <v>-0.01887025374797272</v>
       </c>
       <c r="J23">
-        <v>0.006722266469957077</v>
+        <v>0.01302867188982445</v>
       </c>
       <c r="K23">
-        <v>0.005261891728618917</v>
+        <v>-0.005214617425228398</v>
       </c>
       <c r="L23">
-        <v>0.005261891728618917</v>
+        <v>-0.005214617425228398</v>
       </c>
       <c r="O23">
-        <v>0.005261891728618917</v>
+        <v>-0.005214617425228398</v>
       </c>
       <c r="P23">
-        <v>-0.003215894576158946</v>
+        <v>0.01115837058841204</v>
       </c>
       <c r="Q23">
-        <v>0.002592858781928588</v>
+        <v>0.01942764595199447</v>
       </c>
       <c r="R23">
-        <v>0.002592858781928588</v>
+        <v>0.01942764595199447</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1656,40 +1656,40 @@
         <v>71</v>
       </c>
       <c r="C24">
-        <v>-0.007484067962840679</v>
+        <v>0.003422380858162201</v>
       </c>
       <c r="D24">
-        <v>-0.01110188474701885</v>
+        <v>0.001018814640918979</v>
       </c>
       <c r="F24">
-        <v>0.01063674131836741</v>
+        <v>-0.001532258133316533</v>
       </c>
       <c r="G24">
-        <v>-0.01189149077891491</v>
+        <v>0.004046573500727711</v>
       </c>
       <c r="I24">
-        <v>-0.01186555706265557</v>
+        <v>0.004770111496407993</v>
       </c>
       <c r="J24">
-        <v>0.003341749592613527</v>
+        <v>-0.004596051960009111</v>
       </c>
       <c r="K24">
-        <v>-0.007367750965677509</v>
+        <v>-0.00145729724933277</v>
       </c>
       <c r="L24">
-        <v>-0.007367750965677509</v>
+        <v>-0.00145729724933277</v>
       </c>
       <c r="O24">
-        <v>-0.007367750965677509</v>
+        <v>-0.00145729724933277</v>
       </c>
       <c r="P24">
-        <v>0.01170831188108312</v>
+        <v>-0.003636888080263877</v>
       </c>
       <c r="Q24">
-        <v>0.01442553885625539</v>
+        <v>-0.006645420478834697</v>
       </c>
       <c r="R24">
-        <v>0.01442553885625539</v>
+        <v>-0.006645420478834697</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1700,40 +1700,40 @@
         <v>72</v>
       </c>
       <c r="C25">
-        <v>-0.001530912183309122</v>
+        <v>-0.02191248142050752</v>
       </c>
       <c r="D25">
-        <v>0.001704990857049909</v>
+        <v>-0.01706367614943245</v>
       </c>
       <c r="F25">
-        <v>-0.000452659600526596</v>
+        <v>-0.002682007424718866</v>
       </c>
       <c r="G25">
-        <v>-0.0006428198464281985</v>
+        <v>0.0007114813704918965</v>
       </c>
       <c r="I25">
-        <v>-0.002945604629456046</v>
+        <v>-0.005752002933625047</v>
       </c>
       <c r="J25">
-        <v>-0.001784098507290593</v>
+        <v>-0.006280887183981869</v>
       </c>
       <c r="K25">
-        <v>0.002198429085984291</v>
+        <v>0.00482399670037495</v>
       </c>
       <c r="L25">
-        <v>0.002198429085984291</v>
+        <v>0.00482399670037495</v>
       </c>
       <c r="O25">
-        <v>0.002198429085984291</v>
+        <v>0.00482399670037495</v>
       </c>
       <c r="P25">
-        <v>0.0004946027449460275</v>
+        <v>-0.001083965149749456</v>
       </c>
       <c r="Q25">
-        <v>0.002439625956396259</v>
+        <v>0.006855802607121916</v>
       </c>
       <c r="R25">
-        <v>0.002439625956396259</v>
+        <v>0.006855802607121916</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1742,40 +1742,40 @@
         <v>73</v>
       </c>
       <c r="C26">
-        <v>0.01250825148508252</v>
+        <v>-0.01794093309282708</v>
       </c>
       <c r="D26">
-        <v>-0.01081725564017256</v>
+        <v>0.007981843437216304</v>
       </c>
       <c r="F26">
-        <v>0.0169752300857523</v>
+        <v>-0.007910248436097634</v>
       </c>
       <c r="G26">
-        <v>-0.01805008928450089</v>
+        <v>0.008510962937671297</v>
       </c>
       <c r="I26">
-        <v>-0.01127384160473842</v>
+        <v>0.01169196672174948</v>
       </c>
       <c r="J26">
-        <v>-0.0005672127133580726</v>
+        <v>-0.008883634622137471</v>
       </c>
       <c r="K26">
-        <v>-0.01374103912141039</v>
+        <v>0.006208675104823049</v>
       </c>
       <c r="L26">
-        <v>-0.01374103912141039</v>
+        <v>0.006208675104823049</v>
       </c>
       <c r="O26">
-        <v>-0.01374103912141039</v>
+        <v>0.006208675104823049</v>
       </c>
       <c r="P26">
-        <v>0.01787031260270313</v>
+        <v>-0.008461589757212342</v>
       </c>
       <c r="Q26">
-        <v>0.0145307602093076</v>
+        <v>-0.01241177860018404</v>
       </c>
       <c r="R26">
-        <v>0.0145307602093076</v>
+        <v>-0.01241177860018404</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1786,40 +1786,40 @@
         <v>74</v>
       </c>
       <c r="C27">
-        <v>0.001352522245525222</v>
+        <v>0.0005206098831345295</v>
       </c>
       <c r="D27">
-        <v>-0.001261675212616752</v>
+        <v>0.02903286291457599</v>
       </c>
       <c r="F27">
-        <v>0.009384325893843259</v>
+        <v>0.01613915908029936</v>
       </c>
       <c r="G27">
-        <v>-0.008708047527080475</v>
+        <v>-0.0142926459967601</v>
       </c>
       <c r="I27">
-        <v>-0.00086405698464057</v>
+        <v>0.01122301763629715</v>
       </c>
       <c r="J27">
-        <v>-0.02477391774017864</v>
+        <v>-0.01658195318696766</v>
       </c>
       <c r="K27">
-        <v>-0.009622715124227152</v>
+        <v>-0.01867323725270683</v>
       </c>
       <c r="L27">
-        <v>-0.009622715124227152</v>
+        <v>-0.01867323725270683</v>
       </c>
       <c r="O27">
-        <v>-0.009622715124227152</v>
+        <v>-0.01867323725270683</v>
       </c>
       <c r="P27">
-        <v>0.008800857088008571</v>
+        <v>0.01457739538402181</v>
       </c>
       <c r="Q27">
-        <v>0.002543902369439023</v>
+        <v>-0.005672821166762832</v>
       </c>
       <c r="R27">
-        <v>0.002543902369439023</v>
+        <v>-0.005672821166762832</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -1828,40 +1828,40 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>-0.003193046971930469</v>
+        <v>-0.01037854616997728</v>
       </c>
       <c r="D28">
-        <v>0.01474209685542097</v>
+        <v>0.009685264065394753</v>
       </c>
       <c r="F28">
-        <v>0.01052782608927826</v>
+        <v>0.0005338647270916365</v>
       </c>
       <c r="G28">
-        <v>-0.008754779667547796</v>
+        <v>0.001134927158358237</v>
       </c>
       <c r="I28">
-        <v>0.005605828808058287</v>
+        <v>0.004305871450091742</v>
       </c>
       <c r="J28">
-        <v>-0.003966876705473681</v>
+        <v>-0.004721888463502945</v>
       </c>
       <c r="K28">
-        <v>-0.01251155544511555</v>
+        <v>-0.003376971591827682</v>
       </c>
       <c r="L28">
-        <v>-0.01251155544511555</v>
+        <v>-0.003376971591827682</v>
       </c>
       <c r="O28">
-        <v>-0.01251155544511555</v>
+        <v>-0.003376971591827682</v>
       </c>
       <c r="P28">
-        <v>0.009095971206959711</v>
+        <v>-0.0008661467947835437</v>
       </c>
       <c r="Q28">
-        <v>-0.003079097298790973</v>
+        <v>-0.003411597686118715</v>
       </c>
       <c r="R28">
-        <v>-0.003079097298790973</v>
+        <v>-0.003411597686118715</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -1872,40 +1872,40 @@
         <v>76</v>
       </c>
       <c r="C29">
-        <v>0.007425237398252374</v>
+        <v>-0.01179794113746783</v>
       </c>
       <c r="D29">
-        <v>-0.005577593131775931</v>
+        <v>0.01144191936627999</v>
       </c>
       <c r="F29">
-        <v>-0.006938447637384477</v>
+        <v>-0.006331042645797542</v>
       </c>
       <c r="G29">
-        <v>0.007062875302628753</v>
+        <v>0.007925337123833394</v>
       </c>
       <c r="I29">
-        <v>0.000216185894161859</v>
+        <v>0.01022991055827985</v>
       </c>
       <c r="J29">
-        <v>-0.02470315357073039</v>
+        <v>-0.01257662208751772</v>
       </c>
       <c r="K29">
-        <v>0.006394541811945417</v>
+        <v>0.003071989337062334</v>
       </c>
       <c r="L29">
-        <v>0.006394541811945417</v>
+        <v>0.003071989337062334</v>
       </c>
       <c r="O29">
-        <v>0.006394541811945417</v>
+        <v>0.003071989337062334</v>
       </c>
       <c r="P29">
-        <v>-0.007027341322273414</v>
+        <v>-0.007668029791687968</v>
       </c>
       <c r="Q29">
-        <v>-0.002960456069604561</v>
+        <v>-0.01172905309732896</v>
       </c>
       <c r="R29">
-        <v>-0.002960456069604561</v>
+        <v>-0.01172905309732896</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -1916,40 +1916,40 @@
         <v>77</v>
       </c>
       <c r="C30">
-        <v>-0.01029590925095909</v>
+        <v>0.02541631867837998</v>
       </c>
       <c r="D30">
-        <v>0.004842115728421158</v>
+        <v>0.00527271484019867</v>
       </c>
       <c r="F30">
-        <v>-0.004563720189637202</v>
+        <v>-0.005442178983471548</v>
       </c>
       <c r="G30">
-        <v>0.003558249335582493</v>
+        <v>0.005486059234157177</v>
       </c>
       <c r="I30">
-        <v>0.001652552092525521</v>
+        <v>-0.001794519871789373</v>
       </c>
       <c r="J30">
-        <v>-0.01832082725630868</v>
+        <v>-0.01447133028824167</v>
       </c>
       <c r="K30">
-        <v>0.005422220238222203</v>
+        <v>0.004005679843838749</v>
       </c>
       <c r="L30">
-        <v>0.005422220238222203</v>
+        <v>0.004005679843838749</v>
       </c>
       <c r="O30">
-        <v>0.005422220238222203</v>
+        <v>0.004005679843838749</v>
       </c>
       <c r="P30">
-        <v>-0.003743759953437599</v>
+        <v>-0.005503344484427258</v>
       </c>
       <c r="Q30">
-        <v>-0.002027279780272798</v>
+        <v>0.0007203927534436369</v>
       </c>
       <c r="R30">
-        <v>-0.002027279780272798</v>
+        <v>0.0007203927534436369</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -1960,40 +1960,40 @@
         <v>78</v>
       </c>
       <c r="C31">
-        <v>-0.003943717347437173</v>
+        <v>-0.01440372847505826</v>
       </c>
       <c r="D31">
-        <v>-0.01621171205411712</v>
+        <v>0.001742901050670329</v>
       </c>
       <c r="F31">
-        <v>-0.01411945787719458</v>
+        <v>-0.004051296133614003</v>
       </c>
       <c r="G31">
-        <v>0.01164033768840338</v>
+        <v>0.005390746115480408</v>
       </c>
       <c r="I31">
-        <v>-0.01261317689413177</v>
+        <v>0.0069604031634438</v>
       </c>
       <c r="J31">
-        <v>-0.008248923216413916</v>
+        <v>-0.008112587327061192</v>
       </c>
       <c r="K31">
-        <v>0.01752921561129216</v>
+        <v>0.001628992431703007</v>
       </c>
       <c r="L31">
-        <v>0.01752921561129216</v>
+        <v>0.001628992431703007</v>
       </c>
       <c r="O31">
-        <v>0.01752921561129216</v>
+        <v>0.001628992431703007</v>
       </c>
       <c r="P31">
-        <v>-0.01198508353185084</v>
+        <v>-0.00519903287029739</v>
       </c>
       <c r="Q31">
-        <v>0.008162315649623157</v>
+        <v>-0.007749868433591696</v>
       </c>
       <c r="R31">
-        <v>0.008162315649623157</v>
+        <v>-0.007749868433591696</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2004,40 +2004,40 @@
         <v>79</v>
       </c>
       <c r="C32">
-        <v>0.004292410194924102</v>
+        <v>0.001453436108647439</v>
       </c>
       <c r="D32">
-        <v>-0.002000245952002459</v>
+        <v>0.0008118716611229948</v>
       </c>
       <c r="F32">
-        <v>0.01208221266082213</v>
+        <v>0.001270755769855559</v>
       </c>
       <c r="G32">
-        <v>-0.01101436500214365</v>
+        <v>-0.001208627292322302</v>
       </c>
       <c r="I32">
-        <v>0.003538420055384201</v>
+        <v>0.004920010694062668</v>
       </c>
       <c r="J32">
-        <v>0.01201452579999125</v>
+        <v>0.006282599287204251</v>
       </c>
       <c r="K32">
-        <v>-0.01282959588829596</v>
+        <v>-0.001140180838127826</v>
       </c>
       <c r="L32">
-        <v>-0.01282959588829596</v>
+        <v>-0.001140180838127826</v>
       </c>
       <c r="O32">
-        <v>-0.01282959588829596</v>
+        <v>-0.001140180838127826</v>
       </c>
       <c r="P32">
-        <v>0.01122754266427543</v>
+        <v>0.001253714972714297</v>
       </c>
       <c r="Q32">
-        <v>-0.002067745100677451</v>
+        <v>-0.004000486210945097</v>
       </c>
       <c r="R32">
-        <v>-0.002067745100677451</v>
+        <v>-0.004000486210945097</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2048,40 +2048,40 @@
         <v>80</v>
       </c>
       <c r="C33">
-        <v>0.006810570692105707</v>
+        <v>-0.01183396701303074</v>
       </c>
       <c r="D33">
-        <v>0.003653658888536589</v>
+        <v>-0.005672794541762415</v>
       </c>
       <c r="F33">
-        <v>0.01221131852611319</v>
+        <v>-0.003654019557094056</v>
       </c>
       <c r="G33">
-        <v>-0.01226651054666511</v>
+        <v>0.001824830137887971</v>
       </c>
       <c r="I33">
-        <v>-0.003646842528468425</v>
+        <v>-0.01228679133260612</v>
       </c>
       <c r="J33">
-        <v>-0.005611960827168829</v>
+        <v>0.008441219356765173</v>
       </c>
       <c r="K33">
-        <v>-0.01140373902603739</v>
+        <v>0.006454316889911203</v>
       </c>
       <c r="L33">
-        <v>-0.01140373902603739</v>
+        <v>0.006454316889911203</v>
       </c>
       <c r="O33">
-        <v>-0.01140373902603739</v>
+        <v>0.006454316889911203</v>
       </c>
       <c r="P33">
-        <v>0.01226545272265453</v>
+        <v>-0.002091452868616451</v>
       </c>
       <c r="Q33">
-        <v>0.006415359748153598</v>
+        <v>0.01111324620489447</v>
       </c>
       <c r="R33">
-        <v>0.006415359748153598</v>
+        <v>0.01111324620489447</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2092,40 +2092,40 @@
         <v>81</v>
       </c>
       <c r="C34">
-        <v>-0.01147543415475434</v>
+        <v>0.01300872542982384</v>
       </c>
       <c r="D34">
-        <v>-0.00284086194440862</v>
+        <v>0.00213115580673681</v>
       </c>
       <c r="F34">
-        <v>-0.003797909665979096</v>
+        <v>-0.01524317590223713</v>
       </c>
       <c r="G34">
-        <v>0.002920887485208875</v>
+        <v>0.01392533503789586</v>
       </c>
       <c r="I34">
-        <v>0.001059064486590645</v>
+        <v>-0.006220899214389051</v>
       </c>
       <c r="J34">
-        <v>-0.001959847800349824</v>
+        <v>0.002230787590875237</v>
       </c>
       <c r="K34">
-        <v>0.004766548475665485</v>
+        <v>0.01585377095084017</v>
       </c>
       <c r="L34">
-        <v>0.004766548475665485</v>
+        <v>0.01585377095084017</v>
       </c>
       <c r="O34">
-        <v>0.004766548475665485</v>
+        <v>0.01585377095084017</v>
       </c>
       <c r="P34">
-        <v>-0.003039210594392106</v>
+        <v>-0.01416257004941516</v>
       </c>
       <c r="Q34">
-        <v>-0.001251343800513438</v>
+        <v>0.003276486332445099</v>
       </c>
       <c r="R34">
-        <v>-0.001251343800513438</v>
+        <v>0.003276486332445099</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2136,40 +2136,40 @@
         <v>82</v>
       </c>
       <c r="C35">
-        <v>0.007315074781150747</v>
+        <v>-0.01202144850033513</v>
       </c>
       <c r="D35">
-        <v>0.006341509179415093</v>
+        <v>-0.02401827414872304</v>
       </c>
       <c r="F35">
-        <v>-0.00618761901787619</v>
+        <v>-0.009716583222134114</v>
       </c>
       <c r="G35">
-        <v>0.006536069561360695</v>
+        <v>0.008416456350257132</v>
       </c>
       <c r="I35">
-        <v>0.007674247276742472</v>
+        <v>-0.01232616626290885</v>
       </c>
       <c r="J35">
-        <v>0.009490887982062756</v>
+        <v>0.003156967033858556</v>
       </c>
       <c r="K35">
-        <v>0.004060433500604335</v>
+        <v>0.01190830579544228</v>
       </c>
       <c r="L35">
-        <v>0.004060433500604335</v>
+        <v>0.01190830579544228</v>
       </c>
       <c r="O35">
-        <v>0.004060433500604335</v>
+        <v>0.01190830579544228</v>
       </c>
       <c r="P35">
-        <v>-0.006552299201522993</v>
+        <v>-0.008685809479465774</v>
       </c>
       <c r="Q35">
-        <v>-0.006893363732933638</v>
+        <v>0.01100756189855566</v>
       </c>
       <c r="R35">
-        <v>-0.006893363732933638</v>
+        <v>0.01100756189855566</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2180,40 +2180,40 @@
         <v>83</v>
       </c>
       <c r="C36">
-        <v>0.004720488635204887</v>
+        <v>-0.005502164078158814</v>
       </c>
       <c r="D36">
-        <v>-0.00246730699267307</v>
+        <v>-0.01595291422582679</v>
       </c>
       <c r="F36">
-        <v>-0.006660562146605622</v>
+        <v>-0.01437057366985271</v>
       </c>
       <c r="G36">
-        <v>0.006342095127420951</v>
+        <v>0.01283462638022854</v>
       </c>
       <c r="I36">
-        <v>-0.003909789351097893</v>
+        <v>-0.007928652498885197</v>
       </c>
       <c r="J36">
-        <v>0.01600660596503383</v>
+        <v>0.003211705293243375</v>
       </c>
       <c r="K36">
-        <v>0.007035479662354796</v>
+        <v>0.01545332407739569</v>
       </c>
       <c r="L36">
-        <v>0.007035479662354796</v>
+        <v>0.01545332407739569</v>
       </c>
       <c r="O36">
-        <v>0.007035479662354796</v>
+        <v>0.01545332407739569</v>
       </c>
       <c r="P36">
-        <v>-0.006373411443734114</v>
+        <v>-0.01308045107156955</v>
       </c>
       <c r="Q36">
-        <v>0.0008672000606720007</v>
+        <v>0.005152754072699283</v>
       </c>
       <c r="R36">
-        <v>0.0008672000606720007</v>
+        <v>0.005152754072699283</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2224,40 +2224,40 @@
         <v>83</v>
       </c>
       <c r="C37">
-        <v>0.01348064195080642</v>
+        <v>0.006919997123749956</v>
       </c>
       <c r="D37">
-        <v>-0.01519095769990958</v>
+        <v>-0.004795681270245021</v>
       </c>
       <c r="F37">
-        <v>-0.004350263635502637</v>
+        <v>-0.0008220623331572241</v>
       </c>
       <c r="G37">
-        <v>0.002917414085174141</v>
+        <v>0.001430523162976925</v>
       </c>
       <c r="I37">
-        <v>-0.01092160471321605</v>
+        <v>0.001617983439343492</v>
       </c>
       <c r="J37">
-        <v>-0.01867953584016837</v>
+        <v>0.004698910157677893</v>
       </c>
       <c r="K37">
-        <v>0.006478347904783478</v>
+        <v>0.0001834580888040327</v>
       </c>
       <c r="L37">
-        <v>0.006478347904783478</v>
+        <v>0.0001834580888040327</v>
       </c>
       <c r="O37">
-        <v>0.006478347904783478</v>
+        <v>0.0001834580888040327</v>
       </c>
       <c r="P37">
-        <v>-0.003132085051320851</v>
+        <v>-0.001364185497877899</v>
       </c>
       <c r="Q37">
-        <v>0.009392769069927691</v>
+        <v>-0.001146959080421236</v>
       </c>
       <c r="R37">
-        <v>0.009392769069927691</v>
+        <v>-0.001146959080421236</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2268,40 +2268,40 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>-0.01834889247948892</v>
+        <v>0.004531025812984779</v>
       </c>
       <c r="D38">
-        <v>-0.01165142259251423</v>
+        <v>0.01924398648818729</v>
       </c>
       <c r="F38">
-        <v>-0.009333366825333669</v>
+        <v>0.02460861479075961</v>
       </c>
       <c r="G38">
-        <v>0.008306846891068469</v>
+        <v>-0.0200597246571832</v>
       </c>
       <c r="I38">
-        <v>-0.005102683563026835</v>
+        <v>0.0215317825161216</v>
       </c>
       <c r="J38">
-        <v>-0.006729276779652332</v>
+        <v>0.0020053837478066</v>
       </c>
       <c r="K38">
-        <v>0.01049141364891414</v>
+        <v>-0.03149005476546961</v>
       </c>
       <c r="L38">
-        <v>0.01049141364891414</v>
+        <v>-0.03149005476546961</v>
       </c>
       <c r="O38">
-        <v>0.01049141364891414</v>
+        <v>-0.03149005476546961</v>
       </c>
       <c r="P38">
-        <v>-0.008495285280952853</v>
+        <v>0.02078176185596503</v>
       </c>
       <c r="Q38">
-        <v>0.001717187321171873</v>
+        <v>-0.01320691138604549</v>
       </c>
       <c r="R38">
-        <v>0.001717187321171873</v>
+        <v>-0.01320691138604549</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2312,40 +2312,40 @@
         <v>83</v>
       </c>
       <c r="C39">
-        <v>0.02188013065480131</v>
+        <v>-0.001312800208012504</v>
       </c>
       <c r="D39">
-        <v>0.007499023610990236</v>
+        <v>0.01430752569230509</v>
       </c>
       <c r="F39">
-        <v>-0.0125456598414566</v>
+        <v>0.0008673302948020359</v>
       </c>
       <c r="G39">
-        <v>0.01525256460852564</v>
+        <v>0.0007168068627626073</v>
       </c>
       <c r="I39">
-        <v>0.01373022698930227</v>
+        <v>0.01426785727762277</v>
       </c>
       <c r="J39">
-        <v>0.01286626470778271</v>
+        <v>-0.001059540351174171</v>
       </c>
       <c r="K39">
-        <v>0.007419311786193118</v>
+        <v>-0.004338044341219443</v>
       </c>
       <c r="L39">
-        <v>0.007419311786193118</v>
+        <v>-0.004338044341219443</v>
       </c>
       <c r="O39">
-        <v>0.007419311786193118</v>
+        <v>-0.004338044341219443</v>
       </c>
       <c r="P39">
-        <v>-0.01479228666392287</v>
+        <v>-0.0004931937967686531</v>
       </c>
       <c r="Q39">
-        <v>-0.01630118211101182</v>
+        <v>-0.01221903110498486</v>
       </c>
       <c r="R39">
-        <v>-0.01630118211101182</v>
+        <v>-0.01221903110498486</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2356,40 +2356,40 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>-0.008218659826186598</v>
+        <v>0.002085490110710784</v>
       </c>
       <c r="D40">
-        <v>-0.003414632878146329</v>
+        <v>-0.00962075250969926</v>
       </c>
       <c r="F40">
-        <v>-0.002776178715761787</v>
+        <v>-0.002556345813380404</v>
       </c>
       <c r="G40">
-        <v>0.002323025663230257</v>
+        <v>-0.001175026823047294</v>
       </c>
       <c r="I40">
-        <v>-0.0008631831926318319</v>
+        <v>-0.02316340231505317</v>
       </c>
       <c r="J40">
-        <v>0.01036132722542309</v>
+        <v>0.001596107866705364</v>
       </c>
       <c r="K40">
-        <v>0.003557097251570972</v>
+        <v>0.008576429196506707</v>
       </c>
       <c r="L40">
-        <v>0.003557097251570972</v>
+        <v>0.008576429196506707</v>
       </c>
       <c r="O40">
-        <v>0.003557097251570972</v>
+        <v>0.008576429196506707</v>
       </c>
       <c r="P40">
-        <v>-0.002344328603443286</v>
+        <v>0.0005551926414873851</v>
       </c>
       <c r="Q40">
-        <v>-0.001095718222957182</v>
+        <v>0.02194601813978153</v>
       </c>
       <c r="R40">
-        <v>-0.001095718222957182</v>
+        <v>0.02194601813978153</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2400,40 +2400,40 @@
         <v>84</v>
       </c>
       <c r="C41">
-        <v>-0.06091563549315635</v>
+        <v>-0.04922173869877718</v>
       </c>
       <c r="D41">
-        <v>-0.0122099903780999</v>
+        <v>0.002546723336667552</v>
       </c>
       <c r="F41">
-        <v>0.002048301476483015</v>
+        <v>0.009285892785717075</v>
       </c>
       <c r="G41">
-        <v>-0.005951371427513714</v>
+        <v>-0.008453349436771087</v>
       </c>
       <c r="I41">
-        <v>-0.0222368698263687</v>
+        <v>0.004928460241069692</v>
       </c>
       <c r="J41">
-        <v>0.005190133967540941</v>
+        <v>0.001771185554650464</v>
       </c>
       <c r="K41">
-        <v>0.004928190577281906</v>
+        <v>-0.009480552921571142</v>
       </c>
       <c r="L41">
-        <v>0.004928190577281906</v>
+        <v>-0.009480552921571142</v>
       </c>
       <c r="O41">
-        <v>0.004928190577281906</v>
+        <v>-0.009480552921571142</v>
       </c>
       <c r="P41">
-        <v>0.005363559821635598</v>
+        <v>0.008593146931142923</v>
       </c>
       <c r="Q41">
-        <v>0.02212391531323915</v>
+        <v>-0.002949745733589778</v>
       </c>
       <c r="R41">
-        <v>0.02212391531323915</v>
+        <v>-0.002949745733589778</v>
       </c>
     </row>
   </sheetData>

--- a/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_-1_agile.xlsx
@@ -133,7 +133,7 @@
     <t>Stream-cellulosic ethanol</t>
   </si>
   <si>
-    <t>Stream-ethanol</t>
+    <t>Stream-advanced ethanol</t>
   </si>
   <si>
     <t>Stream-biodiesel</t>
